--- a/inst/extdata/hilic_neg_sample.xlsx
+++ b/inst/extdata/hilic_neg_sample.xlsx
@@ -12,7 +12,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1325">
+  <si>
+    <t xml:space="preserve">Sample_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo_50</t>
+  </si>
   <si>
     <t xml:space="preserve">Injection_order</t>
   </si>
@@ -167,159 +320,6 @@
     <t xml:space="preserve">50</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo_50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subject_ID</t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">30193.2847249768</t>
   </si>
   <si>
-    <t xml:space="preserve">35132.7543717149</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">48290.0025784758</t>
@@ -1043,7 +1043,10 @@
     <t xml:space="preserve">39178.9987162989</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">38574.301109298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49891.4977501188</t>
   </si>
   <si>
     <t xml:space="preserve">28768.7158423871</t>
@@ -1067,6 +1070,9 @@
     <t xml:space="preserve">42604.0058587639</t>
   </si>
   <si>
+    <t xml:space="preserve">34034.5710542107</t>
+  </si>
+  <si>
     <t xml:space="preserve">35629.7132705043</t>
   </si>
   <si>
@@ -1088,70 +1094,73 @@
     <t xml:space="preserve">37723.4244585146</t>
   </si>
   <si>
-    <t xml:space="preserve">38795.5903514044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45579.8514422152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32708.6281859083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35199.3604752547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49295.938929801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45894.9076973332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39404.3913327962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44936.5404788043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62719.9800715189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61489.8528241918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46006.7381037182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44154.4519644438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50862.7465332628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50543.0082310631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40058.2211612306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44805.513712863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50396.0113487124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42598.647217876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52697.4614122145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51971.8544808812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51992.2133406599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45668.1839363527</t>
+    <t xml:space="preserve">36342.8450281366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42698.1897263473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30640.7144336798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32973.9769714676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46179.3377240718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33259.8182379384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42993.3274095526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55430.7772242862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36913.1562289532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42095.5503429438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57602.3246907913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43098.0876436894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41362.907240513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47647.0881927653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47347.5644721272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37525.649450846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41972.8073866952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47209.8610664953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39905.4640031141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49365.8082305993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48686.0758172522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51990.8446124863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42780.9376396104</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_108_1065a2_6121</t>
@@ -1181,9 +1190,6 @@
     <t xml:space="preserve">16292.051432741</t>
   </si>
   <si>
-    <t xml:space="preserve">11040.4393944527</t>
-  </si>
-  <si>
     <t xml:space="preserve">12656.5218165275</t>
   </si>
   <si>
@@ -1193,9 +1199,6 @@
     <t xml:space="preserve">11937.8812117984</t>
   </si>
   <si>
-    <t xml:space="preserve">9835.80447727075</t>
-  </si>
-  <si>
     <t xml:space="preserve">16848.6120372116</t>
   </si>
   <si>
@@ -1220,70 +1223,91 @@
     <t xml:space="preserve">10211.3618031856</t>
   </si>
   <si>
+    <t xml:space="preserve">11201.4940380237</t>
+  </si>
+  <si>
     <t xml:space="preserve">15537.4753233809</t>
   </si>
   <si>
     <t xml:space="preserve">10428.4901360001</t>
   </si>
   <si>
+    <t xml:space="preserve">10297.4785991385</t>
+  </si>
+  <si>
     <t xml:space="preserve">10005.0685649935</t>
   </si>
   <si>
     <t xml:space="preserve">10969.9573317222</t>
   </si>
   <si>
-    <t xml:space="preserve">17092.901005683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13716.2445466865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17907.7691412718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10966.8774193098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21085.1115150746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20452.0551678496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13840.4318568125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14339.5726260354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13607.792081302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15789.5144211891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12313.559715104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10957.3224776098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13441.7180334321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11942.3239248459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19400.2841193938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13626.6487614289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16324.3088114717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14836.7072892713</t>
+    <t xml:space="preserve">19927.0372019186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17357.3080779157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17139.4296767704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13130.7936334433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15990.5047868446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14574.8676575713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20877.0168248706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12785.2711632044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16135.283320814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16717.18551951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15864.0700575007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18407.5389640796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14355.2438786922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12774.1319377064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9856.37367122598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16563.8257417388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15670.4596382349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13922.4543012708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22617.0024179288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15886.0533221476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19031.006432065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17296.7489842121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19747.4474159463</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_158_23a1_4128</t>
@@ -1310,7 +1334,7 @@
     <t xml:space="preserve">25379.0504344349</t>
   </si>
   <si>
-    <t xml:space="preserve">6812.6161699793</t>
+    <t xml:space="preserve">14208.2263940104</t>
   </si>
   <si>
     <t xml:space="preserve">12058.2200007551</t>
@@ -1322,12 +1346,12 @@
     <t xml:space="preserve">27709.0857953163</t>
   </si>
   <si>
+    <t xml:space="preserve">34776.6900477207</t>
+  </si>
+  <si>
     <t xml:space="preserve">23079.2776775203</t>
   </si>
   <si>
-    <t xml:space="preserve">16313.3338380183</t>
-  </si>
-  <si>
     <t xml:space="preserve">20577.0661218163</t>
   </si>
   <si>
@@ -1337,15 +1361,9 @@
     <t xml:space="preserve">21954.5941223925</t>
   </si>
   <si>
-    <t xml:space="preserve">17525.0551925535</t>
-  </si>
-  <si>
     <t xml:space="preserve">27503.7481675903</t>
   </si>
   <si>
-    <t xml:space="preserve">14007.7671023387</t>
-  </si>
-  <si>
     <t xml:space="preserve">10270.8437877782</t>
   </si>
   <si>
@@ -1364,64 +1382,76 @@
     <t xml:space="preserve">14445.4143404112</t>
   </si>
   <si>
-    <t xml:space="preserve">23218.9051770265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25498.6999495114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33673.2410462552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27604.8087531802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35916.5791762749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18480.8474077875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23958.6300810064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24826.7922794799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16351.9295952102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25356.9763109135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16919.4277940373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23350.2713362852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26234.4768791361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37579.5823698062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23018.9146693632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22275.2126269039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28344.7744242993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30886.7845035377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25407.1674385092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23821.1487572202</t>
+    <t xml:space="preserve">22621.1232113462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30176.8091228766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14642.7004948393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24842.2235626233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32806.307137443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21813.8054794574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34991.8894401821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18005.0490354423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23341.8035392019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24187.6144811636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15930.9412436249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24704.1486677805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31599.7205502151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16483.8289263132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22749.1072851746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25559.0575586367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36612.0778106035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22426.2815562182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21612.292043241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21701.7264832405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27615.0244708481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30091.5892687366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24753.0476004735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23207.8617387201</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_251_0056a0_6161</t>
@@ -1490,9 +1520,6 @@
     <t xml:space="preserve">16070.6318769962</t>
   </si>
   <si>
-    <t xml:space="preserve">32706.1860762477</t>
-  </si>
-  <si>
     <t xml:space="preserve">15652.7186411256</t>
   </si>
   <si>
@@ -1508,70 +1535,73 @@
     <t xml:space="preserve">17378.3737357807</t>
   </si>
   <si>
-    <t xml:space="preserve">29468.5549166171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29815.8137674062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29670.3009111707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35064.8799040555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28894.5636509984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31870.5132740034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33846.2759384234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35842.3946390262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25949.7993774224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29682.5621780672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26470.6414059189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44606.6605934286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20474.9286264806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35804.8068127956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29221.8481090998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32952.8606889688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35755.3642331121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30607.0038582888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28149.0887046127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24565.3186066809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30020.7368275778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26848.2257993753</t>
+    <t xml:space="preserve">38332.2621966373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35701.9791849868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28562.4168834662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28757.9593258192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33986.658681507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28006.0754591086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30890.5166540358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32805.5259595015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34740.265366874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25151.8606853131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28769.843567093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25656.687175463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43235.0361004757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19845.3384885522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28323.2961425871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31939.5826216903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34655.911086785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29665.8592940145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24869.4894883631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27283.5233606057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23809.9517572046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29097.6195759971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26022.6611054744</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_401_52a4_211</t>
@@ -1607,15 +1637,18 @@
     <t xml:space="preserve">15180.0389521037</t>
   </si>
   <si>
+    <t xml:space="preserve">18289.1164770559</t>
+  </si>
+  <si>
     <t xml:space="preserve">19114.3814604176</t>
   </si>
   <si>
-    <t xml:space="preserve">7824.14385974022</t>
-  </si>
-  <si>
     <t xml:space="preserve">14085.9476201104</t>
   </si>
   <si>
+    <t xml:space="preserve">18072.6913085291</t>
+  </si>
+  <si>
     <t xml:space="preserve">20310.8099852795</t>
   </si>
   <si>
@@ -1628,6 +1661,9 @@
     <t xml:space="preserve">15023.3074120729</t>
   </si>
   <si>
+    <t xml:space="preserve">12342.4453009917</t>
+  </si>
+  <si>
     <t xml:space="preserve">16863.3417284278</t>
   </si>
   <si>
@@ -1649,73 +1685,76 @@
     <t xml:space="preserve">15286.0516685804</t>
   </si>
   <si>
-    <t xml:space="preserve">21218.7000756821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29900.6032282373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27599.8913564013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15610.2762762433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19626.3242596352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13972.3534190701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17875.0273264795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10717.2923537557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18082.8744887553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15754.643811702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21277.8718743565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16488.5661011481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13900.6395853559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20579.3143750932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17085.7723010961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22202.4723572296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15908.5350018065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20012.6819300421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17577.3756976811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21292.1211589501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13568.7495346823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18564.6485165221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14418.1632464985</t>
+    <t xml:space="preserve">22580.472242664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31819.5619348004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29371.1951463043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23360.8914509965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26794.4673307055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16612.1114346679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20885.9010490523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14869.0700852871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19022.2095106104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11405.1059512286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19243.3958727224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16765.7441791594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22643.4415646653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14792.7538064471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21900.0520937855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18182.3017344749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23627.3809890694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16929.5117867013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21297.0543535076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18705.4552175532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22658.6053387936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14439.5637406032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19756.0891584762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15343.4910629082</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_400_7045a5_3842</t>
@@ -1745,6 +1784,9 @@
     <t xml:space="preserve">25810.0668648769</t>
   </si>
   <si>
+    <t xml:space="preserve">30332.4840507452</t>
+  </si>
+  <si>
     <t xml:space="preserve">24853.119245385</t>
   </si>
   <si>
@@ -1760,6 +1802,9 @@
     <t xml:space="preserve">38492.637953251</t>
   </si>
   <si>
+    <t xml:space="preserve">29744.7209378123</t>
+  </si>
+  <si>
     <t xml:space="preserve">34932.5666600059</t>
   </si>
   <si>
@@ -1772,12 +1817,18 @@
     <t xml:space="preserve">31423.6900923117</t>
   </si>
   <si>
+    <t xml:space="preserve">35217.6396624122</t>
+  </si>
+  <si>
     <t xml:space="preserve">27011.7365014069</t>
   </si>
   <si>
     <t xml:space="preserve">26696.2544117753</t>
   </si>
   <si>
+    <t xml:space="preserve">36472.1037096434</t>
+  </si>
+  <si>
     <t xml:space="preserve">37929.9283321791</t>
   </si>
   <si>
@@ -1790,70 +1841,70 @@
     <t xml:space="preserve">32479.7561338937</t>
   </si>
   <si>
-    <t xml:space="preserve">28794.264518231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39949.7993573618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39995.1588780121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33828.6575237298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46742.5521995371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33327.7653838765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40686.8737339931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34294.5997545692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41252.5828403266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38793.9254772916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44432.4289155057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49669.3534267283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35920.7677969394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34717.9260232822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39507.1287845371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36383.9498569559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35368.7552319218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43189.2893881108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31249.719335743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43019.4342584258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34904.359995883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46137.522657902</t>
+    <t xml:space="preserve">27883.2808863099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38685.8805206766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38729.8049714769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32758.3973934712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45263.7264444623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32273.352317205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39399.6355764691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33209.5982946459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39947.4469609847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37566.5758047412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43026.6900940507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48097.9304806342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43544.2214038357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34784.318158216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33619.5315037267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38257.2150163239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35232.8462139599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42191.6524468781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41822.8806131285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30261.0508181302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41658.399305124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44677.8386318653</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_304_014a7_1311</t>
@@ -1877,12 +1928,12 @@
     <t xml:space="preserve">17220.062450023</t>
   </si>
   <si>
+    <t xml:space="preserve">19345.2427608662</t>
+  </si>
+  <si>
     <t xml:space="preserve">20675.6278314591</t>
   </si>
   <si>
-    <t xml:space="preserve">17320.8255310992</t>
-  </si>
-  <si>
     <t xml:space="preserve">16248.8500509752</t>
   </si>
   <si>
@@ -1895,12 +1946,21 @@
     <t xml:space="preserve">5018.02902534945</t>
   </si>
   <si>
+    <t xml:space="preserve">13190.1360536381</t>
+  </si>
+  <si>
     <t xml:space="preserve">16042.4676814063</t>
   </si>
   <si>
     <t xml:space="preserve">15413.9645896961</t>
   </si>
   <si>
+    <t xml:space="preserve">14619.0758346063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17164.1726755968</t>
+  </si>
+  <si>
     <t xml:space="preserve">8733.19776362213</t>
   </si>
   <si>
@@ -1925,67 +1985,73 @@
     <t xml:space="preserve">378.878900679556</t>
   </si>
   <si>
-    <t xml:space="preserve">20788.6519927448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17394.3103773989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18419.0281105095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17824.7195688026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21101.8302109297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21057.4108502922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15113.2689872536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15519.2275324253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18977.4404364399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12856.991065003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11655.8670426379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17666.2938950638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19798.2709108808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26064.2441938865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23697.2554996838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17811.5421757036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17634.7749776031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21877.7507115483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20072.5404680757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16109.4042661294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14411.271288784</t>
+    <t xml:space="preserve">15102.686620001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22645.8549942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18948.2719066242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20064.5352026815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19417.132712996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22987.0117233072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22938.6240548677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16463.4483319629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16905.6741362538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24350.2112471425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20672.8346039323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20702.5540505764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17798.9721465231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12697.1712726441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21566.9958946931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28392.7546025694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25814.3054197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19402.7780865668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19210.2189760814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23832.2509023637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21495.084376762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21865.767966289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17548.5756931743</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_276_6328a2_7734</t>
@@ -2018,6 +2084,9 @@
     <t xml:space="preserve">9385.9127757369</t>
   </si>
   <si>
+    <t xml:space="preserve">10265.0099586101</t>
+  </si>
+  <si>
     <t xml:space="preserve">9098.45927000466</t>
   </si>
   <si>
@@ -2045,88 +2114,97 @@
     <t xml:space="preserve">11194.4023201707</t>
   </si>
   <si>
+    <t xml:space="preserve">8237.9797009336</t>
+  </si>
+  <si>
     <t xml:space="preserve">8895.46696553157</t>
   </si>
   <si>
     <t xml:space="preserve">8168.77033219043</t>
   </si>
   <si>
+    <t xml:space="preserve">9359.04144147079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8548.38353128968</t>
+  </si>
+  <si>
     <t xml:space="preserve">7046.01513109987</t>
   </si>
   <si>
     <t xml:space="preserve">8830.61603876494</t>
   </si>
   <si>
-    <t xml:space="preserve">17938.2396659215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12117.0753100434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11772.0107785563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16628.4280893594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17024.3197367234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17750.9986320444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13087.9163527339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15748.7783632455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18666.5012490635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12238.1452942869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14858.6772874808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14015.1505000687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16197.5113084631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12714.1231548782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12639.3155023156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12294.4363158536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13549.5840791201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10738.489742419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10061.9198635837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13001.6115556328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7305.07579598892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10776.5669600977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20143.5591614215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9269.32444632223</t>
+    <t xml:space="preserve">21239.1977961447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14346.8346958097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13938.2720958456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19688.3573754354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21017.5010506371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15496.3279191327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18646.8363080281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22101.472584516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14490.1837306323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17592.9406550091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12973.8450729796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16594.1897955126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19178.1441709301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15053.750062444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14965.1764588445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14556.8333107174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16042.9507951466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12714.564635035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11913.493752545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15394.14149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8649.34088496959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12759.6487443382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23850.335669255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10975.0465496395</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_118_9111a4_1865</t>
@@ -2144,6 +2222,9 @@
     <t xml:space="preserve">40772.0944514942</t>
   </si>
   <si>
+    <t xml:space="preserve">43814.0814473726</t>
+  </si>
+  <si>
     <t xml:space="preserve">42403.8034998517</t>
   </si>
   <si>
@@ -2162,9 +2243,6 @@
     <t xml:space="preserve">23930.0894206227</t>
   </si>
   <si>
-    <t xml:space="preserve">35440.1579002903</t>
-  </si>
-  <si>
     <t xml:space="preserve">49218.6114176257</t>
   </si>
   <si>
@@ -2180,6 +2258,9 @@
     <t xml:space="preserve">36274.4674892743</t>
   </si>
   <si>
+    <t xml:space="preserve">21886.8546116055</t>
+  </si>
+  <si>
     <t xml:space="preserve">36742.6952599345</t>
   </si>
   <si>
@@ -2189,9 +2270,6 @@
     <t xml:space="preserve">34556.2652329804</t>
   </si>
   <si>
-    <t xml:space="preserve">25124.6280475357</t>
-  </si>
-  <si>
     <t xml:space="preserve">34957.7131667944</t>
   </si>
   <si>
@@ -2207,67 +2285,73 @@
     <t xml:space="preserve">35770.6827419122</t>
   </si>
   <si>
-    <t xml:space="preserve">36896.42965581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51556.6952429741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35377.5848007161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43994.1417102696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53602.705209895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40860.8780431392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47446.4684504928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38385.0356468289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50288.3911757408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60020.5003952307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40172.239525484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55671.058059195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37752.9550528744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46420.3916096654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55176.0914122243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46926.2281608522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46721.6560862121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52544.5717524049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49531.6563002161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43742.9605148239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40442.4813442299</t>
+    <t xml:space="preserve">34283.9893163762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47906.2393133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32872.6858035152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40879.1500545775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51587.8457217747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49807.3821745925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37967.7361565021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44087.0358631117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35667.1950186209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37262.3619630932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46727.7371249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55770.7673482064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37327.8564770216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35079.8686964705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43133.6100770162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51269.3652513941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43603.6310269698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43413.5436150761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48824.1695307053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50542.341715056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46024.582629274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40645.7536663235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37578.9639070128</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_446_9413a2_315</t>
@@ -2279,18 +2363,21 @@
     <t xml:space="preserve">2.31501143495552</t>
   </si>
   <si>
+    <t xml:space="preserve">6713.77477539409</t>
+  </si>
+  <si>
     <t xml:space="preserve">5428.66874666556</t>
   </si>
   <si>
-    <t xml:space="preserve">7495.25213722152</t>
-  </si>
-  <si>
     <t xml:space="preserve">6977.52794087678</t>
   </si>
   <si>
     <t xml:space="preserve">7833.2157598026</t>
   </si>
   <si>
+    <t xml:space="preserve">7710.55916413938</t>
+  </si>
+  <si>
     <t xml:space="preserve">6337.09108516971</t>
   </si>
   <si>
@@ -2303,6 +2390,9 @@
     <t xml:space="preserve">6494.28947830226</t>
   </si>
   <si>
+    <t xml:space="preserve">5305.0909330916</t>
+  </si>
+  <si>
     <t xml:space="preserve">4291.06547727848</t>
   </si>
   <si>
@@ -2312,6 +2402,9 @@
     <t xml:space="preserve">3574.74979242905</t>
   </si>
   <si>
+    <t xml:space="preserve">6605.88380440237</t>
+  </si>
+  <si>
     <t xml:space="preserve">5627.56118951567</t>
   </si>
   <si>
@@ -2321,7 +2414,7 @@
     <t xml:space="preserve">4299.40464623223</t>
   </si>
   <si>
-    <t xml:space="preserve">4584.90990718436</t>
+    <t xml:space="preserve">6128.9039646701</t>
   </si>
   <si>
     <t xml:space="preserve">3681.80390406143</t>
@@ -2330,76 +2423,82 @@
     <t xml:space="preserve">5428.18180159121</t>
   </si>
   <si>
+    <t xml:space="preserve">7264.98324166704</t>
+  </si>
+  <si>
     <t xml:space="preserve">4223.87188935158</t>
   </si>
   <si>
-    <t xml:space="preserve">9177.97762594967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9632.610934877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7805.34258922223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7992.63315126825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6905.67347472422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5276.70007447432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6399.90928869759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7081.22819155513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7661.99159930336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8677.13333866142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7040.10675192829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8684.08291032535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5599.10076726084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7035.01903335073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8666.45457652669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8328.65483082114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6029.95181285187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6682.08700734243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10648.1554435035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6153.85506128509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7538.05142712359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9651.19808315001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5812.64630825002</t>
+    <t xml:space="preserve">14215.868732539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14920.0551780231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14064.5115777883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12089.7794898904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12008.1348413684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10696.2722755927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8173.13777139914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9912.8886619908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10968.1908737368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11867.7415923906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13440.105603263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10904.4974314936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13450.8698699182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8672.50768868618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10896.6170092051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13423.5651531856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12900.3434764125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9339.85752947048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10349.9567799344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16493.0430425682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9531.77261000865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11675.7693202623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14948.8450128572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9003.27068494127</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_127_5856a4_3758</t>
@@ -2420,6 +2519,12 @@
     <t xml:space="preserve">47078.871595708</t>
   </si>
   <si>
+    <t xml:space="preserve">28857.8772386127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37096.6770941618</t>
+  </si>
+  <si>
     <t xml:space="preserve">40861.0612464987</t>
   </si>
   <si>
@@ -2462,6 +2567,9 @@
     <t xml:space="preserve">48674.7165148662</t>
   </si>
   <si>
+    <t xml:space="preserve">46358.42234468</t>
+  </si>
+  <si>
     <t xml:space="preserve">40360.4297147329</t>
   </si>
   <si>
@@ -2477,73 +2585,70 @@
     <t xml:space="preserve">48095.9535263175</t>
   </si>
   <si>
-    <t xml:space="preserve">39340.6997736344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39041.4712712254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37583.1342942134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44852.439543098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48509.6139898324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41426.4193179423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33582.6770230312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45145.1615305188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46993.4105439005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47283.6623733947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50422.4235627129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39121.5522044646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48449.6962684105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44097.3871194923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50013.4629127165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50186.169148918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51643.6808220273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40893.3717693387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58284.6412120068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35821.1356301479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55286.2167236652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40221.3313499781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42993.3812792386</t>
+    <t xml:space="preserve">30233.3359951861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36377.2089347131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36100.5209801524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34752.038893783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41473.755522375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38305.813562467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31052.9315869599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41744.427090432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43453.4495763061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43721.8370606657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46624.1588860776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36174.5695064088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40775.5803519228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46246.0047836699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47753.4202042733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37812.9198885042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31562.8127735267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53894.1244882206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33122.7696150409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51121.5679573258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37191.5035210192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39754.7380347516</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_303_2144a1_2372</t>
@@ -2555,9 +2660,6 @@
     <t xml:space="preserve">1.23722738947254</t>
   </si>
   <si>
-    <t xml:space="preserve">24906.020013218</t>
-  </si>
-  <si>
     <t xml:space="preserve">33229.886638829</t>
   </si>
   <si>
@@ -2585,106 +2687,112 @@
     <t xml:space="preserve">61732.768298611</t>
   </si>
   <si>
+    <t xml:space="preserve">34879.2366167289</t>
+  </si>
+  <si>
     <t xml:space="preserve">28319.8664150873</t>
   </si>
   <si>
     <t xml:space="preserve">37522.5325470754</t>
   </si>
   <si>
-    <t xml:space="preserve">19786.4089451857</t>
-  </si>
-  <si>
     <t xml:space="preserve">32697.394101266</t>
   </si>
   <si>
+    <t xml:space="preserve">39132.0355315276</t>
+  </si>
+  <si>
     <t xml:space="preserve">32058.1235939845</t>
   </si>
   <si>
+    <t xml:space="preserve">51705.2794485182</t>
+  </si>
+  <si>
     <t xml:space="preserve">39493.2903670174</t>
   </si>
   <si>
-    <t xml:space="preserve">48403.4878206445</t>
-  </si>
-  <si>
     <t xml:space="preserve">25485.2197337619</t>
   </si>
   <si>
     <t xml:space="preserve">52412.8011247733</t>
   </si>
   <si>
+    <t xml:space="preserve">20337.7274447</t>
+  </si>
+  <si>
     <t xml:space="preserve">39379.1985720002</t>
   </si>
   <si>
-    <t xml:space="preserve">36994.7026958296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45924.3422650079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46661.2693277611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59233.7832584093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45584.7677610726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50629.5496823597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45205.1359944227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36485.7065541818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43174.2514714198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40113.404372261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43789.6062871994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54786.9391286551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44031.180529253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46423.1888963106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60838.157583988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43508.0519149444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29618.8147270459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57892.3389473881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44545.4058559545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46304.3839708304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55170.2438694873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53143.8923540312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61683.9937381807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47744.8939422066</t>
+    <t xml:space="preserve">41867.0408626101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33893.6143394064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42074.7250848038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42749.8790890565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54268.4995236043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41763.6154816125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46385.5175488452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41415.8064237694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39555.1612023041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36750.890223733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40118.9337775134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50194.412992877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40340.2580103858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42531.7557974142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39860.980756854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27136.011655582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53039.5020503885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47068.9075798353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40811.3782961758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42422.9097185862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50545.5871371065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48689.0949429231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56513.3206196016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43742.6686533539</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_366_6203a6_1825</t>
@@ -2705,6 +2813,9 @@
     <t xml:space="preserve">24820.3159008588</t>
   </si>
   <si>
+    <t xml:space="preserve">22235.6510215729</t>
+  </si>
+  <si>
     <t xml:space="preserve">27578.0445818407</t>
   </si>
   <si>
@@ -2729,15 +2840,15 @@
     <t xml:space="preserve">26479.8723318058</t>
   </si>
   <si>
+    <t xml:space="preserve">22799.0088252344</t>
+  </si>
+  <si>
     <t xml:space="preserve">14925.9073017744</t>
   </si>
   <si>
     <t xml:space="preserve">3779.282409514</t>
   </si>
   <si>
-    <t xml:space="preserve">16313.2236903381</t>
-  </si>
-  <si>
     <t xml:space="preserve">24789.2070964398</t>
   </si>
   <si>
@@ -2765,76 +2876,79 @@
     <t xml:space="preserve">19690.2168348954</t>
   </si>
   <si>
-    <t xml:space="preserve">34747.5824881254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45194.4611768195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40216.6410736539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26183.154926709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16560.1966244928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25261.526128982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31924.3387248382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28456.6832658946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33435.8176826887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15980.9488962137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18059.0873806135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29057.4115570602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26070.6391616714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26784.5766422827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28048.2449757962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29209.5242004748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38030.3905515817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28238.571776336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16067.1720172104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27831.1720158786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23187.9434444199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31199.107740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24534.9911445534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30951.7346835918</t>
+    <t xml:space="preserve">33628.1111133835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43738.4201529116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38920.9716990834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25339.6058121512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16026.6727142307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24447.6693551085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30895.8244858337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27539.8873320436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32358.6077559363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15466.0867518721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17477.2733397815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28121.2618127337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25230.7149950711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25921.6513770254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15495.0026808098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27144.6077983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28268.4738058628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36805.156145496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27328.8027937598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15549.5320014635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26934.5283311578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22440.8917917177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30193.9584459436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23744.5413262025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29954.555067176</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_258_7252a7_5445</t>
@@ -2849,9 +2963,6 @@
     <t xml:space="preserve">21719.1077441077</t>
   </si>
   <si>
-    <t xml:space="preserve">18897.9145166294</t>
-  </si>
-  <si>
     <t xml:space="preserve">17975.8694653628</t>
   </si>
   <si>
@@ -2879,6 +2990,12 @@
     <t xml:space="preserve">14732.8641171433</t>
   </si>
   <si>
+    <t xml:space="preserve">14990.4019964279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16053.041653837</t>
+  </si>
+  <si>
     <t xml:space="preserve">28816.43759844</t>
   </si>
   <si>
@@ -2894,85 +3011,91 @@
     <t xml:space="preserve">15269.4024705552</t>
   </si>
   <si>
+    <t xml:space="preserve">23194.8527913222</t>
+  </si>
+  <si>
     <t xml:space="preserve">17994.6723894879</t>
   </si>
   <si>
     <t xml:space="preserve">6532.70684795675</t>
   </si>
   <si>
+    <t xml:space="preserve">20254.2894848705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14468.5737565105</t>
+  </si>
+  <si>
     <t xml:space="preserve">15119.4371232675</t>
   </si>
   <si>
-    <t xml:space="preserve">25113.6269580137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13595.2428867083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16987.8539233193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23617.2943435833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25111.2998842754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24139.6457431563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22426.6385932189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28510.6129765724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22799.4253101325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16687.0792826855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10585.1920004527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24905.206061391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22312.8833499532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25767.6922892002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18995.4442430895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30055.2772350759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26344.3918459295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22824.1180760613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22277.7397899886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14171.1367826648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22645.1849961674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21866.7769606721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16021.5557355137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19439.6176721314</t>
+    <t xml:space="preserve">25972.2587857375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14060.0625747478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17568.666566896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18848.6593281663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25969.8521496333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24964.9772725169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23193.4026180724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29485.38733993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23578.9348671478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17257.6084781624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10947.0984176083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25756.7120042036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23075.7580969814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26648.6865304338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19644.8961536453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31082.8634801149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27245.1033743263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23604.4718757174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14655.6462124244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23419.4210957522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22614.3993849264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16569.3307624805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20104.2558177874</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_301_2643a4_0372</t>
@@ -2987,9 +3110,18 @@
     <t xml:space="preserve">18747.3881684497</t>
   </si>
   <si>
+    <t xml:space="preserve">21056.0339756444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22028.2024558287</t>
+  </si>
+  <si>
     <t xml:space="preserve">12220.2571655656</t>
   </si>
   <si>
+    <t xml:space="preserve">25601.9130890498</t>
+  </si>
+  <si>
     <t xml:space="preserve">21556.7202580224</t>
   </si>
   <si>
@@ -3044,76 +3176,76 @@
     <t xml:space="preserve">24218.7678480931</t>
   </si>
   <si>
+    <t xml:space="preserve">23395.1327010658</t>
+  </si>
+  <si>
     <t xml:space="preserve">20204.3746532846</t>
   </si>
   <si>
-    <t xml:space="preserve">21827.3607673113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23959.4623815304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27017.8680542072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21583.8930372762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30087.5808543941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27777.2571121607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24728.2604614945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28721.2258304451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22015.8025172473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23198.5656042907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27826.4981909439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24637.5712209117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20344.4047202656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30414.5149308165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26275.0197406848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26090.552045747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23207.690894265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31047.2269507443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28521.0706881991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27419.3428199144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31680.0449159173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28644.3118721891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28232.7338531328</t>
+    <t xml:space="preserve">23322.4602455922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25600.6035203238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28868.4995099627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21493.7593905763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23062.3158096543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32148.4771266319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26422.0616364924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23523.8096101968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24787.5879190629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29732.5180424127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22504.7158895161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26325.1604934389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21737.9267867885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32497.8050679059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27877.6655299424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24797.3382601566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33173.8556948683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30474.6663775965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29297.4739225191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33850.0195239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30606.3491607268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30166.5794565591</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_224_4031a4_7409</t>
@@ -3128,9 +3260,6 @@
     <t xml:space="preserve">29970.4668391761</t>
   </si>
   <si>
-    <t xml:space="preserve">20269.4069595937</t>
-  </si>
-  <si>
     <t xml:space="preserve">22825.6342918046</t>
   </si>
   <si>
@@ -3185,7 +3314,7 @@
     <t xml:space="preserve">39508.2968902009</t>
   </si>
   <si>
-    <t xml:space="preserve">18667.7392485033</t>
+    <t xml:space="preserve">41253.2287862463</t>
   </si>
   <si>
     <t xml:space="preserve">25361.5718362827</t>
@@ -3197,70 +3326,73 @@
     <t xml:space="preserve">33149.8560558195</t>
   </si>
   <si>
-    <t xml:space="preserve">38395.4982815747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33741.9643500036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42256.6147564465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36393.6532032239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41045.2240724305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39160.6187519125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39814.028462873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42806.8431092497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41153.0757808247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42073.1044142018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41417.3058049423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48869.6845617473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40768.9483535992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37753.6543018261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45327.0253299254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50978.8301832375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38574.9297541729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32251.9449605198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47685.8038912806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60815.5509283116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26698.1092386876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39832.127306855</t>
+    <t xml:space="preserve">35927.7911937252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43625.1602766557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31573.3433316269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39540.750855468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33350.55486667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34054.6061799579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38407.2171471625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36643.7368052328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40055.6156248586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38508.1371464462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39369.03485872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38755.3849113793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45728.793770603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38148.6978732291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35327.19900153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42413.8238692357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47702.383042198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36095.6904727973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30179.0885909437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44621.0019869181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56906.890465653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24982.2020008825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37272.0870084219</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_424_8488a6_7736</t>
@@ -3278,6 +3410,9 @@
     <t xml:space="preserve">9480.68539455622</t>
   </si>
   <si>
+    <t xml:space="preserve">6170.4952514317</t>
+  </si>
+  <si>
     <t xml:space="preserve">5798.78453449521</t>
   </si>
   <si>
@@ -3287,12 +3422,18 @@
     <t xml:space="preserve">6113.23270745376</t>
   </si>
   <si>
+    <t xml:space="preserve">4658.0846822348</t>
+  </si>
+  <si>
     <t xml:space="preserve">5833.23205106246</t>
   </si>
   <si>
     <t xml:space="preserve">7117.03738131136</t>
   </si>
   <si>
+    <t xml:space="preserve">6020.44843668063</t>
+  </si>
+  <si>
     <t xml:space="preserve">4638.99242294692</t>
   </si>
   <si>
@@ -3338,76 +3479,76 @@
     <t xml:space="preserve">5520.18859342172</t>
   </si>
   <si>
-    <t xml:space="preserve">6884.27713852603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11751.1906611833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10130.2080631267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8557.65321115015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7103.73785120975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10067.9783258337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8439.07113644644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9696.3087127932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10474.5567521023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7718.08986225437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10733.7772381537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11140.3942280586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8749.86314873384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14258.657392441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11297.5212209923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8420.63830929262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10353.3138576854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9401.05024315115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9463.18782222467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7622.59372579416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9295.7085630303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8370.02772687525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9391.00141348564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9746.77934838219</t>
+    <t xml:space="preserve">10891.6197690274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18591.5671231036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16027.009399034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13539.0692465644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11436.9887144231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11238.8287190295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15928.5556872959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13351.4604616322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15340.5369275216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12210.7954737072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16981.9166211606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17625.225650788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13843.1647258522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22558.6320263322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17873.8163783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13322.2978726504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16379.9852356693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14873.4082921955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14971.7162003489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12059.7109681293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14706.7471449727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13242.2268341249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14857.5100316174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15420.3865560701</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_131_2034a6_1385</t>
@@ -3422,12 +3563,21 @@
     <t xml:space="preserve">28764.4498286681</t>
   </si>
   <si>
+    <t xml:space="preserve">29043.8503893751</t>
+  </si>
+  <si>
     <t xml:space="preserve">37985.1149952773</t>
   </si>
   <si>
     <t xml:space="preserve">42171.9578954975</t>
   </si>
   <si>
+    <t xml:space="preserve">21441.5338420677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32963.0014973987</t>
+  </si>
+  <si>
     <t xml:space="preserve">25720.6814123319</t>
   </si>
   <si>
@@ -3479,64 +3629,73 @@
     <t xml:space="preserve">20842.663801637</t>
   </si>
   <si>
-    <t xml:space="preserve">33901.3953635392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33116.7419729762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35284.2327834578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40767.988893749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25016.583793434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39831.2510327761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33076.282092852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41292.2524985533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45014.4782978107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30499.2983793572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34302.3309071038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35120.3909141687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23481.1125692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31588.8023026143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41690.5181861409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39932.9133193119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32414.356783624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37996.6132586015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37160.0885268056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26654.5422105844</t>
+    <t xml:space="preserve">31585.3597794296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30854.3114146848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32873.7261418231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37982.8494634099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37110.1065559112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30816.6156249791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38471.2970449751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41939.2322077933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28415.6832484904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31958.9046809315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28823.4184872577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32721.0774283133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24240.0626968415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21876.9575873548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35788.3687190451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29430.755726427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38842.3544865748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31879.3414185955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26331.1061395554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37204.823598139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30199.9109491131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34621.4293827249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24833.5886015699</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_236_4114a5_6302</t>
@@ -3578,12 +3737,21 @@
     <t xml:space="preserve">7049.67831485364</t>
   </si>
   <si>
+    <t xml:space="preserve">7397.4502030367</t>
+  </si>
+  <si>
     <t xml:space="preserve">4519.73994026468</t>
   </si>
   <si>
     <t xml:space="preserve">7187.1077520874</t>
   </si>
   <si>
+    <t xml:space="preserve">5990.38718806193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10094.9038012225</t>
+  </si>
+  <si>
     <t xml:space="preserve">4124.61686804155</t>
   </si>
   <si>
@@ -3596,79 +3764,82 @@
     <t xml:space="preserve">5762.47194750667</t>
   </si>
   <si>
+    <t xml:space="preserve">3273.29478532646</t>
+  </si>
+  <si>
     <t xml:space="preserve">6066.10439446032</t>
   </si>
   <si>
     <t xml:space="preserve">6712.73032812416</t>
   </si>
   <si>
+    <t xml:space="preserve">3922.49421216065</t>
+  </si>
+  <si>
     <t xml:space="preserve">7530.78510781045</t>
   </si>
   <si>
     <t xml:space="preserve">6492.33692951723</t>
   </si>
   <si>
-    <t xml:space="preserve">9789.58731009259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10831.2778830011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9994.91470769563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7533.65926337217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8065.08553676244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7657.67425847044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11904.290311719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9903.22394860347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5939.71839030956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4069.84014046029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9509.91013403079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6123.88298946317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8509.2909387609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7681.89008076257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6735.45123009254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7226.84989059235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7435.20963328164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9080.1439595588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6516.13715328481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6673.16367262641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6466.17669095435</t>
+    <t xml:space="preserve">14756.3240317103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16326.5152101237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15065.8240663537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11355.8532871151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12156.898115739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14927.6140980456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8953.22820545819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6134.66921204929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14334.752937494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9230.82851834154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12826.4706565311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11579.2888522327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10152.6752561429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14745.1559987878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10893.3845050004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13686.9453509741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9822.09241545928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10058.7861725687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12158.9392332554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11946.2499562478</t>
   </si>
   <si>
     <t xml:space="preserve">HILIC_neg_411_0148a0_7484</t>
@@ -3686,12 +3857,6 @@
     <t xml:space="preserve">8904.86764009213</t>
   </si>
   <si>
-    <t xml:space="preserve">9404.42508613023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9646.06073395542</t>
-  </si>
-  <si>
     <t xml:space="preserve">3028.90818605526</t>
   </si>
   <si>
@@ -3722,6 +3887,9 @@
     <t xml:space="preserve">9627.0384095627</t>
   </si>
   <si>
+    <t xml:space="preserve">6093.39528736597</t>
+  </si>
+  <si>
     <t xml:space="preserve">4758.45851106644</t>
   </si>
   <si>
@@ -3749,76 +3917,76 @@
     <t xml:space="preserve">9253.54971865275</t>
   </si>
   <si>
-    <t xml:space="preserve">16540.3306082897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12806.1991698784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19353.3661376074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20167.8761303277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14579.5182137532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16109.4636663424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11290.6894372553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7087.59007526729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16813.6479938958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10675.2844716116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10952.3919916537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13736.0175671001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13084.8824915401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11055.2091871624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7544.41166415217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14005.73168913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17063.7510277694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11775.6873937519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10824.908221803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14939.6845285687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9178.00077896498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14891.232548969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11139.6952916455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17911.1904793456</t>
+    <t xml:space="preserve">19725.3332749432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15272.1582532668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23080.0463483468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13227.0371342066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24051.3982180687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17386.9472482161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19211.4986830997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13464.8222776226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8452.37496527182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20051.280600217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12730.9150581204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13061.3823453391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16381.0222901912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15604.5047781416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13183.9979989095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8997.16202553937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16702.6725081941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14043.2113410654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12909.350326935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17816.4671146801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10945.3147249692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17758.6852318346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13284.7527303291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21360.1656413695</t>
   </si>
 </sst>
 </file>
@@ -4513,49 +4681,49 @@
         <v>110</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
         <v>103</v>
       </c>
       <c r="V3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="W3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="Z3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
         <v>103</v>
       </c>
       <c r="AB3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
         <v>103</v>
@@ -4588,49 +4756,49 @@
         <v>110</v>
       </c>
       <c r="AQ3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="AR3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="AS3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="AT3" t="s">
         <v>103</v>
       </c>
       <c r="AU3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="AV3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="AX3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AY3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AZ3" t="s">
         <v>103</v>
       </c>
       <c r="BA3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="BB3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="BC3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="BD3" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="BE3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="BF3" t="s">
         <v>103</v>
@@ -5997,132 +6165,132 @@
         <v>343</v>
       </c>
       <c r="R12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z12" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="AA12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AB12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AC12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AD12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AE12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AH12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AI12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AJ12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AK12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM12" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AN12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AO12" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="AP12" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AQ12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AR12" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="AS12" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AT12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AU12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AV12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AW12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AX12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AY12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AZ12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="BA12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="BB12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="BC12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="BD12" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="BE12" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="BF12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s">
         <v>330</v>
@@ -6131,10 +6299,10 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
         <v>333</v>
@@ -6144,159 +6312,159 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M13" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="O13" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="P13" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="S13" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="T13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="W13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="X13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AB13" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="AC13" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AD13" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AE13" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="AF13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AG13" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AH13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AI13" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="AJ13" t="s">
-        <v>343</v>
+        <v>411</v>
       </c>
       <c r="AK13" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="AL13" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AM13" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="AN13" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AO13" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AP13" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="AQ13" t="s">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="AR13" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AS13" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AT13" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AU13" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="AV13" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AW13" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AX13" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="AY13" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="AZ13" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="BA13" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="BB13" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="BC13" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="BD13" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="BE13" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="BF13" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s">
         <v>330</v>
@@ -6305,10 +6473,10 @@
         <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E14" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F14" t="s">
         <v>333</v>
@@ -6318,159 +6486,159 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="J14" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="K14" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L14" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M14" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="N14" t="s">
-        <v>432</v>
+        <v>337</v>
       </c>
       <c r="O14" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="P14" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q14" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="R14" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="S14" t="s">
-        <v>343</v>
+        <v>444</v>
       </c>
       <c r="T14" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="U14" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="V14" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="W14" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="X14" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Y14" t="s">
-        <v>441</v>
+        <v>337</v>
       </c>
       <c r="Z14" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AA14" t="s">
-        <v>443</v>
+        <v>337</v>
       </c>
       <c r="AB14" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AC14" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AD14" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AE14" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AF14" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="AG14" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AH14" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="AI14" t="s">
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="AJ14" t="s">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="AK14" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL14" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AM14" t="s">
-        <v>453</v>
+        <v>337</v>
       </c>
       <c r="AN14" t="s">
-        <v>343</v>
+        <v>461</v>
       </c>
       <c r="AO14" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="AP14" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="AQ14" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AR14" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="AS14" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="AT14" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="AU14" t="s">
-        <v>343</v>
+        <v>468</v>
       </c>
       <c r="AV14" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="AW14" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AX14" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AY14" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AZ14" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="BA14" t="s">
-        <v>343</v>
+        <v>474</v>
       </c>
       <c r="BB14" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="BC14" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="BD14" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="BE14" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="BF14" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
         <v>330</v>
@@ -6479,10 +6647,10 @@
         <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E15" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F15" t="s">
         <v>333</v>
@@ -6492,159 +6660,159 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="J15" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K15" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L15" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="M15" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="N15" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="O15" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="P15" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="Q15" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="R15" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="S15" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="T15" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="U15" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="V15" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="W15" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="X15" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="Y15" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="Z15" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AA15" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AB15" t="s">
-        <v>492</v>
+        <v>337</v>
       </c>
       <c r="AC15" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="AD15" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="AE15" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="AF15" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="AG15" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="AH15" t="s">
-        <v>343</v>
+        <v>507</v>
       </c>
       <c r="AI15" t="s">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="AJ15" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="AK15" t="s">
-        <v>499</v>
+        <v>337</v>
       </c>
       <c r="AL15" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AM15" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AN15" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AO15" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AP15" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AQ15" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AR15" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AS15" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AT15" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AU15" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AV15" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AW15" t="s">
-        <v>511</v>
+        <v>337</v>
       </c>
       <c r="AX15" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="AY15" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="AZ15" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="BA15" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="BB15" t="s">
-        <v>343</v>
+        <v>525</v>
       </c>
       <c r="BC15" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="BD15" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="BE15" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="BF15" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
         <v>330</v>
@@ -6653,10 +6821,10 @@
         <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E16" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="F16" t="s">
         <v>333</v>
@@ -6666,159 +6834,159 @@
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="J16" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K16" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="L16" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="M16" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="N16" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="O16" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="P16" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="Q16" t="s">
-        <v>343</v>
+        <v>541</v>
       </c>
       <c r="R16" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="S16" t="s">
-        <v>532</v>
+        <v>337</v>
       </c>
       <c r="T16" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="U16" t="s">
-        <v>343</v>
+        <v>544</v>
       </c>
       <c r="V16" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="W16" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="X16" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="Y16" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="Z16" t="s">
-        <v>343</v>
+        <v>549</v>
       </c>
       <c r="AA16" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="AB16" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="AC16" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AD16" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="AE16" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="AF16" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="AG16" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="AH16" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="AI16" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="AJ16" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="AK16" t="s">
-        <v>343</v>
+        <v>560</v>
       </c>
       <c r="AL16" t="s">
-        <v>343</v>
+        <v>561</v>
       </c>
       <c r="AM16" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="AN16" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="AO16" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="AP16" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="AQ16" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="AR16" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="AS16" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="AT16" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="AU16" t="s">
-        <v>556</v>
+        <v>337</v>
       </c>
       <c r="AV16" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="AW16" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="AX16" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="AY16" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="AZ16" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="BA16" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="BB16" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="BC16" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="BD16" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="BE16" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="BF16" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="B17" t="s">
         <v>330</v>
@@ -6827,10 +6995,10 @@
         <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="E17" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="F17" t="s">
         <v>333</v>
@@ -6840,171 +7008,171 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="J17" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="K17" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="L17" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="M17" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="N17" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="O17" t="s">
-        <v>343</v>
+        <v>590</v>
       </c>
       <c r="P17" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="Q17" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="R17" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="S17" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="T17" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="U17" t="s">
-        <v>343</v>
+        <v>596</v>
       </c>
       <c r="V17" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="W17" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="X17" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="Y17" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="Z17" t="s">
-        <v>343</v>
+        <v>601</v>
       </c>
       <c r="AA17" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="AB17" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="AC17" t="s">
-        <v>343</v>
+        <v>604</v>
       </c>
       <c r="AD17" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="AE17" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="AF17" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="AG17" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="AH17" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="AI17" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="AJ17" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="AK17" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="AL17" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="AM17" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="AN17" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="AO17" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="AP17" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="AQ17" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="AR17" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="AS17" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="AT17" t="s">
-        <v>343</v>
+        <v>621</v>
       </c>
       <c r="AU17" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="AV17" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="AW17" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="AX17" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="AY17" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AZ17" t="s">
-        <v>343</v>
+        <v>626</v>
       </c>
       <c r="BA17" t="s">
-        <v>608</v>
+        <v>337</v>
       </c>
       <c r="BB17" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="BC17" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="BD17" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="BE17" t="s">
-        <v>612</v>
+        <v>337</v>
       </c>
       <c r="BF17" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="B18" t="s">
         <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="D18" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="E18" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="F18" t="s">
         <v>333</v>
@@ -7014,159 +7182,159 @@
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="J18" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="K18" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="L18" t="s">
-        <v>343</v>
+        <v>638</v>
       </c>
       <c r="M18" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="N18" t="s">
-        <v>622</v>
+        <v>337</v>
       </c>
       <c r="O18" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="P18" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="Q18" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="R18" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="S18" t="s">
-        <v>343</v>
+        <v>644</v>
       </c>
       <c r="T18" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="U18" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="V18" t="s">
-        <v>343</v>
+        <v>647</v>
       </c>
       <c r="W18" t="s">
-        <v>343</v>
+        <v>648</v>
       </c>
       <c r="X18" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="Y18" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="Z18" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AA18" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="AB18" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="AC18" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="AD18" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="AE18" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="AF18" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="AG18" t="s">
-        <v>343</v>
+        <v>657</v>
       </c>
       <c r="AH18" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="AI18" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="AJ18" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="AK18" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="AL18" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="AM18" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="AN18" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="AO18" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="AP18" t="s">
-        <v>343</v>
+        <v>666</v>
       </c>
       <c r="AQ18" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="AR18" t="s">
-        <v>343</v>
+        <v>668</v>
       </c>
       <c r="AS18" t="s">
-        <v>343</v>
+        <v>669</v>
       </c>
       <c r="AT18" t="s">
-        <v>646</v>
+        <v>337</v>
       </c>
       <c r="AU18" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="AV18" t="s">
-        <v>648</v>
+        <v>337</v>
       </c>
       <c r="AW18" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="AX18" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="AY18" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="AZ18" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="BA18" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="BB18" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="BC18" t="s">
-        <v>343</v>
+        <v>677</v>
       </c>
       <c r="BD18" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="BE18" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="BF18" t="s">
-        <v>657</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="B19" t="s">
         <v>330</v>
@@ -7175,10 +7343,10 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="E19" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="F19" t="s">
         <v>333</v>
@@ -7188,159 +7356,159 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="J19" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="K19" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="L19" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="M19" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="N19" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="O19" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="P19" t="s">
-        <v>343</v>
+        <v>690</v>
       </c>
       <c r="Q19" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="R19" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="S19" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="T19" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="U19" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="V19" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="W19" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="X19" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="Y19" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
       <c r="Z19" t="s">
-        <v>343</v>
+        <v>700</v>
       </c>
       <c r="AA19" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="AB19" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="AC19" t="s">
-        <v>343</v>
+        <v>703</v>
       </c>
       <c r="AD19" t="s">
-        <v>343</v>
+        <v>704</v>
       </c>
       <c r="AE19" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="AF19" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="AG19" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AH19" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="AI19" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="AJ19" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="AK19" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="AL19" t="s">
-        <v>685</v>
+        <v>337</v>
       </c>
       <c r="AM19" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="AN19" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="AO19" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="AP19" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="AQ19" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="AR19" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="AS19" t="s">
-        <v>343</v>
+        <v>717</v>
       </c>
       <c r="AT19" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="AU19" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="AV19" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="AW19" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="AX19" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="AY19" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="AZ19" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="BA19" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="BB19" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="BC19" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
       <c r="BD19" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="BE19" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="BF19" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="B20" t="s">
         <v>330</v>
@@ -7349,10 +7517,10 @@
         <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="E20" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="F20" t="s">
         <v>333</v>
@@ -7362,171 +7530,171 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="J20" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="K20" t="s">
-        <v>343</v>
+        <v>736</v>
       </c>
       <c r="L20" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="M20" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="N20" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
       <c r="O20" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="P20" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="Q20" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="R20" t="s">
-        <v>716</v>
+        <v>337</v>
       </c>
       <c r="S20" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
       <c r="T20" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="U20" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
       <c r="V20" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="W20" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="X20" t="s">
-        <v>343</v>
+        <v>748</v>
       </c>
       <c r="Y20" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="Z20" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="AA20" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="AB20" t="s">
-        <v>725</v>
+        <v>337</v>
       </c>
       <c r="AC20" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="AD20" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="AE20" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="AF20" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="AG20" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="AH20" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="AI20" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="AJ20" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="AK20" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="AL20" t="s">
-        <v>343</v>
+        <v>761</v>
       </c>
       <c r="AM20" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="AN20" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="AO20" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="AP20" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="AQ20" t="s">
-        <v>343</v>
+        <v>766</v>
       </c>
       <c r="AR20" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="AS20" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="AT20" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="AU20" t="s">
-        <v>742</v>
+        <v>337</v>
       </c>
       <c r="AV20" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="AW20" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="AX20" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AY20" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="AZ20" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="BA20" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="BB20" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="BC20" t="s">
-        <v>343</v>
+        <v>776</v>
       </c>
       <c r="BD20" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="BE20" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="BF20" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="B21" t="s">
         <v>330</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="E21" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="F21" t="s">
         <v>333</v>
@@ -7536,171 +7704,171 @@
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>343</v>
+        <v>783</v>
       </c>
       <c r="J21" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
       <c r="K21" t="s">
-        <v>756</v>
+        <v>337</v>
       </c>
       <c r="L21" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="M21" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="N21" t="s">
-        <v>343</v>
+        <v>787</v>
       </c>
       <c r="O21" t="s">
-        <v>759</v>
+        <v>788</v>
       </c>
       <c r="P21" t="s">
-        <v>760</v>
+        <v>789</v>
       </c>
       <c r="Q21" t="s">
-        <v>761</v>
+        <v>790</v>
       </c>
       <c r="R21" t="s">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="S21" t="s">
-        <v>343</v>
+        <v>792</v>
       </c>
       <c r="T21" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="U21" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="V21" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
       <c r="W21" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="X21" t="s">
-        <v>343</v>
+        <v>796</v>
       </c>
       <c r="Y21" t="s">
-        <v>766</v>
+        <v>797</v>
       </c>
       <c r="Z21" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="AA21" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="AB21" t="s">
-        <v>343</v>
+        <v>800</v>
       </c>
       <c r="AC21" t="s">
-        <v>769</v>
+        <v>337</v>
       </c>
       <c r="AD21" t="s">
-        <v>770</v>
+        <v>801</v>
       </c>
       <c r="AE21" t="s">
-        <v>771</v>
+        <v>802</v>
       </c>
       <c r="AF21" t="s">
-        <v>343</v>
+        <v>803</v>
       </c>
       <c r="AG21" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
       <c r="AH21" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="AI21" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="AJ21" t="s">
-        <v>343</v>
+        <v>807</v>
       </c>
       <c r="AK21" t="s">
-        <v>775</v>
+        <v>808</v>
       </c>
       <c r="AL21" t="s">
-        <v>776</v>
+        <v>337</v>
       </c>
       <c r="AM21" t="s">
-        <v>343</v>
+        <v>809</v>
       </c>
       <c r="AN21" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="AO21" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="AP21" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="AQ21" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="AR21" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="AS21" t="s">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="AT21" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="AU21" t="s">
-        <v>784</v>
+        <v>817</v>
       </c>
       <c r="AV21" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
       <c r="AW21" t="s">
-        <v>786</v>
+        <v>819</v>
       </c>
       <c r="AX21" t="s">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="AY21" t="s">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="AZ21" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="BA21" t="s">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="BB21" t="s">
-        <v>791</v>
+        <v>824</v>
       </c>
       <c r="BC21" t="s">
-        <v>792</v>
+        <v>825</v>
       </c>
       <c r="BD21" t="s">
-        <v>793</v>
+        <v>826</v>
       </c>
       <c r="BE21" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="BF21" t="s">
-        <v>795</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="B22" t="s">
         <v>330</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>797</v>
+        <v>830</v>
       </c>
       <c r="E22" t="s">
-        <v>798</v>
+        <v>831</v>
       </c>
       <c r="F22" t="s">
         <v>333</v>
@@ -7710,171 +7878,171 @@
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>799</v>
+        <v>832</v>
       </c>
       <c r="J22" t="s">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="K22" t="s">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="L22" t="s">
-        <v>343</v>
+        <v>835</v>
       </c>
       <c r="M22" t="s">
-        <v>343</v>
+        <v>836</v>
       </c>
       <c r="N22" t="s">
-        <v>802</v>
+        <v>837</v>
       </c>
       <c r="O22" t="s">
-        <v>803</v>
+        <v>838</v>
       </c>
       <c r="P22" t="s">
-        <v>804</v>
+        <v>839</v>
       </c>
       <c r="Q22" t="s">
-        <v>805</v>
+        <v>840</v>
       </c>
       <c r="R22" t="s">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="S22" t="s">
-        <v>807</v>
+        <v>842</v>
       </c>
       <c r="T22" t="s">
-        <v>808</v>
+        <v>843</v>
       </c>
       <c r="U22" t="s">
-        <v>809</v>
+        <v>844</v>
       </c>
       <c r="V22" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
       <c r="W22" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
       <c r="X22" t="s">
-        <v>812</v>
+        <v>847</v>
       </c>
       <c r="Y22" t="s">
-        <v>813</v>
+        <v>848</v>
       </c>
       <c r="Z22" t="s">
-        <v>814</v>
+        <v>849</v>
       </c>
       <c r="AA22" t="s">
-        <v>815</v>
+        <v>850</v>
       </c>
       <c r="AB22" t="s">
-        <v>343</v>
+        <v>851</v>
       </c>
       <c r="AC22" t="s">
-        <v>816</v>
+        <v>852</v>
       </c>
       <c r="AD22" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
       <c r="AE22" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
       <c r="AF22" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
       <c r="AG22" t="s">
-        <v>820</v>
+        <v>856</v>
       </c>
       <c r="AH22" t="s">
-        <v>343</v>
+        <v>857</v>
       </c>
       <c r="AI22" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="AJ22" t="s">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="AK22" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="AL22" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="AM22" t="s">
-        <v>825</v>
+        <v>337</v>
       </c>
       <c r="AN22" t="s">
-        <v>826</v>
+        <v>862</v>
       </c>
       <c r="AO22" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="AP22" t="s">
-        <v>828</v>
+        <v>864</v>
       </c>
       <c r="AQ22" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
       <c r="AR22" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="AS22" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
       <c r="AT22" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="AU22" t="s">
-        <v>833</v>
+        <v>337</v>
       </c>
       <c r="AV22" t="s">
-        <v>834</v>
+        <v>869</v>
       </c>
       <c r="AW22" t="s">
-        <v>835</v>
+        <v>870</v>
       </c>
       <c r="AX22" t="s">
-        <v>836</v>
+        <v>337</v>
       </c>
       <c r="AY22" t="s">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="AZ22" t="s">
-        <v>838</v>
+        <v>872</v>
       </c>
       <c r="BA22" t="s">
-        <v>343</v>
+        <v>873</v>
       </c>
       <c r="BB22" t="s">
-        <v>839</v>
+        <v>874</v>
       </c>
       <c r="BC22" t="s">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="BD22" t="s">
-        <v>841</v>
+        <v>876</v>
       </c>
       <c r="BE22" t="s">
-        <v>842</v>
+        <v>877</v>
       </c>
       <c r="BF22" t="s">
-        <v>843</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="B23" t="s">
         <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>845</v>
+        <v>880</v>
       </c>
       <c r="E23" t="s">
-        <v>846</v>
+        <v>881</v>
       </c>
       <c r="F23" t="s">
         <v>333</v>
@@ -7884,171 +8052,171 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>847</v>
+        <v>337</v>
       </c>
       <c r="J23" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="K23" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="L23" t="s">
-        <v>850</v>
+        <v>884</v>
       </c>
       <c r="M23" t="s">
-        <v>851</v>
+        <v>885</v>
       </c>
       <c r="N23" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
       <c r="O23" t="s">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="P23" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="Q23" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="R23" t="s">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="S23" t="s">
-        <v>343</v>
+        <v>891</v>
       </c>
       <c r="T23" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="U23" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="V23" t="s">
-        <v>859</v>
+        <v>337</v>
       </c>
       <c r="W23" t="s">
-        <v>860</v>
+        <v>894</v>
       </c>
       <c r="X23" t="s">
-        <v>343</v>
+        <v>895</v>
       </c>
       <c r="Y23" t="s">
-        <v>861</v>
+        <v>896</v>
       </c>
       <c r="Z23" t="s">
-        <v>343</v>
+        <v>897</v>
       </c>
       <c r="AA23" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="AB23" t="s">
-        <v>863</v>
+        <v>337</v>
       </c>
       <c r="AC23" t="s">
-        <v>864</v>
+        <v>899</v>
       </c>
       <c r="AD23" t="s">
-        <v>865</v>
+        <v>900</v>
       </c>
       <c r="AE23" t="s">
-        <v>343</v>
+        <v>901</v>
       </c>
       <c r="AF23" t="s">
-        <v>866</v>
+        <v>902</v>
       </c>
       <c r="AG23" t="s">
-        <v>343</v>
+        <v>903</v>
       </c>
       <c r="AH23" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="AI23" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="AJ23" t="s">
-        <v>869</v>
+        <v>906</v>
       </c>
       <c r="AK23" t="s">
-        <v>870</v>
+        <v>907</v>
       </c>
       <c r="AL23" t="s">
-        <v>871</v>
+        <v>908</v>
       </c>
       <c r="AM23" t="s">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="AN23" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="AO23" t="s">
-        <v>874</v>
+        <v>337</v>
       </c>
       <c r="AP23" t="s">
-        <v>875</v>
+        <v>911</v>
       </c>
       <c r="AQ23" t="s">
-        <v>876</v>
+        <v>912</v>
       </c>
       <c r="AR23" t="s">
-        <v>877</v>
+        <v>913</v>
       </c>
       <c r="AS23" t="s">
-        <v>878</v>
+        <v>914</v>
       </c>
       <c r="AT23" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="AU23" t="s">
-        <v>880</v>
+        <v>916</v>
       </c>
       <c r="AV23" t="s">
-        <v>881</v>
+        <v>337</v>
       </c>
       <c r="AW23" t="s">
-        <v>882</v>
+        <v>917</v>
       </c>
       <c r="AX23" t="s">
-        <v>883</v>
+        <v>918</v>
       </c>
       <c r="AY23" t="s">
-        <v>884</v>
+        <v>919</v>
       </c>
       <c r="AZ23" t="s">
-        <v>343</v>
+        <v>920</v>
       </c>
       <c r="BA23" t="s">
-        <v>885</v>
+        <v>921</v>
       </c>
       <c r="BB23" t="s">
-        <v>886</v>
+        <v>922</v>
       </c>
       <c r="BC23" t="s">
-        <v>887</v>
+        <v>923</v>
       </c>
       <c r="BD23" t="s">
-        <v>888</v>
+        <v>924</v>
       </c>
       <c r="BE23" t="s">
-        <v>889</v>
+        <v>925</v>
       </c>
       <c r="BF23" t="s">
-        <v>890</v>
+        <v>926</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>891</v>
+        <v>927</v>
       </c>
       <c r="B24" t="s">
         <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>892</v>
+        <v>928</v>
       </c>
       <c r="E24" t="s">
-        <v>893</v>
+        <v>929</v>
       </c>
       <c r="F24" t="s">
         <v>333</v>
@@ -8058,171 +8226,171 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>894</v>
+        <v>930</v>
       </c>
       <c r="J24" t="s">
-        <v>895</v>
+        <v>931</v>
       </c>
       <c r="K24" t="s">
-        <v>896</v>
+        <v>932</v>
       </c>
       <c r="L24" t="s">
-        <v>343</v>
+        <v>933</v>
       </c>
       <c r="M24" t="s">
-        <v>897</v>
+        <v>934</v>
       </c>
       <c r="N24" t="s">
-        <v>898</v>
+        <v>935</v>
       </c>
       <c r="O24" t="s">
-        <v>899</v>
+        <v>936</v>
       </c>
       <c r="P24" t="s">
-        <v>900</v>
+        <v>937</v>
       </c>
       <c r="Q24" t="s">
-        <v>901</v>
+        <v>938</v>
       </c>
       <c r="R24" t="s">
-        <v>902</v>
+        <v>939</v>
       </c>
       <c r="S24" t="s">
-        <v>903</v>
+        <v>940</v>
       </c>
       <c r="T24" t="s">
-        <v>904</v>
+        <v>941</v>
       </c>
       <c r="U24" t="s">
-        <v>343</v>
+        <v>942</v>
       </c>
       <c r="V24" t="s">
-        <v>905</v>
+        <v>943</v>
       </c>
       <c r="W24" t="s">
-        <v>906</v>
+        <v>944</v>
       </c>
       <c r="X24" t="s">
-        <v>907</v>
+        <v>337</v>
       </c>
       <c r="Y24" t="s">
-        <v>908</v>
+        <v>945</v>
       </c>
       <c r="Z24" t="s">
-        <v>909</v>
+        <v>946</v>
       </c>
       <c r="AA24" t="s">
-        <v>910</v>
+        <v>947</v>
       </c>
       <c r="AB24" t="s">
-        <v>911</v>
+        <v>948</v>
       </c>
       <c r="AC24" t="s">
-        <v>912</v>
+        <v>949</v>
       </c>
       <c r="AD24" t="s">
-        <v>913</v>
+        <v>950</v>
       </c>
       <c r="AE24" t="s">
-        <v>914</v>
+        <v>951</v>
       </c>
       <c r="AF24" t="s">
-        <v>915</v>
+        <v>952</v>
       </c>
       <c r="AG24" t="s">
-        <v>916</v>
+        <v>953</v>
       </c>
       <c r="AH24" t="s">
-        <v>917</v>
+        <v>954</v>
       </c>
       <c r="AI24" t="s">
-        <v>918</v>
+        <v>955</v>
       </c>
       <c r="AJ24" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="AK24" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="AL24" t="s">
-        <v>921</v>
+        <v>958</v>
       </c>
       <c r="AM24" t="s">
-        <v>922</v>
+        <v>959</v>
       </c>
       <c r="AN24" t="s">
-        <v>923</v>
+        <v>960</v>
       </c>
       <c r="AO24" t="s">
-        <v>924</v>
+        <v>961</v>
       </c>
       <c r="AP24" t="s">
-        <v>925</v>
+        <v>962</v>
       </c>
       <c r="AQ24" t="s">
-        <v>926</v>
+        <v>963</v>
       </c>
       <c r="AR24" t="s">
-        <v>927</v>
+        <v>964</v>
       </c>
       <c r="AS24" t="s">
-        <v>928</v>
+        <v>965</v>
       </c>
       <c r="AT24" t="s">
-        <v>929</v>
+        <v>966</v>
       </c>
       <c r="AU24" t="s">
-        <v>930</v>
+        <v>967</v>
       </c>
       <c r="AV24" t="s">
-        <v>343</v>
+        <v>968</v>
       </c>
       <c r="AW24" t="s">
-        <v>931</v>
+        <v>969</v>
       </c>
       <c r="AX24" t="s">
-        <v>932</v>
+        <v>970</v>
       </c>
       <c r="AY24" t="s">
-        <v>933</v>
+        <v>971</v>
       </c>
       <c r="AZ24" t="s">
-        <v>934</v>
+        <v>972</v>
       </c>
       <c r="BA24" t="s">
-        <v>935</v>
+        <v>973</v>
       </c>
       <c r="BB24" t="s">
-        <v>936</v>
+        <v>974</v>
       </c>
       <c r="BC24" t="s">
-        <v>937</v>
+        <v>975</v>
       </c>
       <c r="BD24" t="s">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="BE24" t="s">
-        <v>939</v>
+        <v>977</v>
       </c>
       <c r="BF24" t="s">
-        <v>940</v>
+        <v>978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>941</v>
+        <v>979</v>
       </c>
       <c r="B25" t="s">
         <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>942</v>
+        <v>980</v>
       </c>
       <c r="E25" t="s">
-        <v>943</v>
+        <v>981</v>
       </c>
       <c r="F25" t="s">
         <v>333</v>
@@ -8232,171 +8400,171 @@
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>944</v>
+        <v>982</v>
       </c>
       <c r="J25" t="s">
-        <v>945</v>
+        <v>337</v>
       </c>
       <c r="K25" t="s">
-        <v>946</v>
+        <v>983</v>
       </c>
       <c r="L25" t="s">
-        <v>947</v>
+        <v>984</v>
       </c>
       <c r="M25" t="s">
-        <v>948</v>
+        <v>985</v>
       </c>
       <c r="N25" t="s">
-        <v>949</v>
+        <v>986</v>
       </c>
       <c r="O25" t="s">
-        <v>950</v>
+        <v>987</v>
       </c>
       <c r="P25" t="s">
-        <v>951</v>
+        <v>988</v>
       </c>
       <c r="Q25" t="s">
-        <v>952</v>
+        <v>989</v>
       </c>
       <c r="R25" t="s">
-        <v>953</v>
+        <v>990</v>
       </c>
       <c r="S25" t="s">
-        <v>954</v>
+        <v>991</v>
       </c>
       <c r="T25" t="s">
-        <v>343</v>
+        <v>992</v>
       </c>
       <c r="U25" t="s">
-        <v>343</v>
+        <v>993</v>
       </c>
       <c r="V25" t="s">
-        <v>955</v>
+        <v>994</v>
       </c>
       <c r="W25" t="s">
-        <v>956</v>
+        <v>995</v>
       </c>
       <c r="X25" t="s">
-        <v>957</v>
+        <v>996</v>
       </c>
       <c r="Y25" t="s">
-        <v>958</v>
+        <v>997</v>
       </c>
       <c r="Z25" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AA25" t="s">
-        <v>959</v>
+        <v>998</v>
       </c>
       <c r="AB25" t="s">
-        <v>343</v>
+        <v>999</v>
       </c>
       <c r="AC25" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="s">
-        <v>961</v>
+        <v>1001</v>
       </c>
       <c r="AE25" t="s">
-        <v>343</v>
+        <v>1002</v>
       </c>
       <c r="AF25" t="s">
-        <v>343</v>
+        <v>1003</v>
       </c>
       <c r="AG25" t="s">
-        <v>962</v>
+        <v>1004</v>
       </c>
       <c r="AH25" t="s">
-        <v>963</v>
+        <v>1005</v>
       </c>
       <c r="AI25" t="s">
-        <v>964</v>
+        <v>1006</v>
       </c>
       <c r="AJ25" t="s">
-        <v>965</v>
+        <v>1007</v>
       </c>
       <c r="AK25" t="s">
-        <v>966</v>
+        <v>337</v>
       </c>
       <c r="AL25" t="s">
-        <v>343</v>
+        <v>1008</v>
       </c>
       <c r="AM25" t="s">
-        <v>967</v>
+        <v>1009</v>
       </c>
       <c r="AN25" t="s">
-        <v>968</v>
+        <v>1010</v>
       </c>
       <c r="AO25" t="s">
-        <v>969</v>
+        <v>1011</v>
       </c>
       <c r="AP25" t="s">
-        <v>970</v>
+        <v>1012</v>
       </c>
       <c r="AQ25" t="s">
-        <v>971</v>
+        <v>1013</v>
       </c>
       <c r="AR25" t="s">
-        <v>972</v>
+        <v>1014</v>
       </c>
       <c r="AS25" t="s">
-        <v>973</v>
+        <v>1015</v>
       </c>
       <c r="AT25" t="s">
-        <v>974</v>
+        <v>1016</v>
       </c>
       <c r="AU25" t="s">
-        <v>975</v>
+        <v>1017</v>
       </c>
       <c r="AV25" t="s">
-        <v>976</v>
+        <v>1018</v>
       </c>
       <c r="AW25" t="s">
-        <v>977</v>
+        <v>1019</v>
       </c>
       <c r="AX25" t="s">
-        <v>978</v>
+        <v>1020</v>
       </c>
       <c r="AY25" t="s">
-        <v>979</v>
+        <v>1021</v>
       </c>
       <c r="AZ25" t="s">
-        <v>980</v>
+        <v>1022</v>
       </c>
       <c r="BA25" t="s">
-        <v>981</v>
+        <v>337</v>
       </c>
       <c r="BB25" t="s">
-        <v>982</v>
+        <v>1023</v>
       </c>
       <c r="BC25" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="BD25" t="s">
-        <v>984</v>
+        <v>1025</v>
       </c>
       <c r="BE25" t="s">
-        <v>985</v>
+        <v>1026</v>
       </c>
       <c r="BF25" t="s">
-        <v>986</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>987</v>
+        <v>1028</v>
       </c>
       <c r="B26" t="s">
         <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>988</v>
+        <v>1029</v>
       </c>
       <c r="E26" t="s">
-        <v>989</v>
+        <v>1030</v>
       </c>
       <c r="F26" t="s">
         <v>333</v>
@@ -8406,171 +8574,171 @@
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>990</v>
+        <v>1031</v>
       </c>
       <c r="J26" t="s">
-        <v>343</v>
+        <v>1032</v>
       </c>
       <c r="K26" t="s">
-        <v>343</v>
+        <v>1033</v>
       </c>
       <c r="L26" t="s">
-        <v>991</v>
+        <v>1034</v>
       </c>
       <c r="M26" t="s">
-        <v>343</v>
+        <v>1035</v>
       </c>
       <c r="N26" t="s">
-        <v>992</v>
+        <v>1036</v>
       </c>
       <c r="O26" t="s">
-        <v>993</v>
+        <v>1037</v>
       </c>
       <c r="P26" t="s">
-        <v>994</v>
+        <v>1038</v>
       </c>
       <c r="Q26" t="s">
-        <v>995</v>
+        <v>1039</v>
       </c>
       <c r="R26" t="s">
-        <v>996</v>
+        <v>1040</v>
       </c>
       <c r="S26" t="s">
-        <v>997</v>
+        <v>1041</v>
       </c>
       <c r="T26" t="s">
-        <v>998</v>
+        <v>1042</v>
       </c>
       <c r="U26" t="s">
-        <v>999</v>
+        <v>1043</v>
       </c>
       <c r="V26" t="s">
-        <v>1000</v>
+        <v>1044</v>
       </c>
       <c r="W26" t="s">
-        <v>1001</v>
+        <v>1045</v>
       </c>
       <c r="X26" t="s">
-        <v>1002</v>
+        <v>1046</v>
       </c>
       <c r="Y26" t="s">
-        <v>1003</v>
+        <v>1047</v>
       </c>
       <c r="Z26" t="s">
-        <v>1004</v>
+        <v>1048</v>
       </c>
       <c r="AA26" t="s">
-        <v>1005</v>
+        <v>1049</v>
       </c>
       <c r="AB26" t="s">
-        <v>1006</v>
+        <v>1050</v>
       </c>
       <c r="AC26" t="s">
-        <v>1007</v>
+        <v>1051</v>
       </c>
       <c r="AD26" t="s">
-        <v>1008</v>
+        <v>1052</v>
       </c>
       <c r="AE26" t="s">
-        <v>1009</v>
+        <v>1053</v>
       </c>
       <c r="AF26" t="s">
-        <v>343</v>
+        <v>1054</v>
       </c>
       <c r="AG26" t="s">
-        <v>1010</v>
+        <v>1055</v>
       </c>
       <c r="AH26" t="s">
-        <v>1011</v>
+        <v>1056</v>
       </c>
       <c r="AI26" t="s">
-        <v>1012</v>
+        <v>1057</v>
       </c>
       <c r="AJ26" t="s">
-        <v>1013</v>
+        <v>1058</v>
       </c>
       <c r="AK26" t="s">
-        <v>343</v>
+        <v>1059</v>
       </c>
       <c r="AL26" t="s">
-        <v>1014</v>
+        <v>1060</v>
       </c>
       <c r="AM26" t="s">
-        <v>1015</v>
+        <v>1061</v>
       </c>
       <c r="AN26" t="s">
-        <v>1016</v>
+        <v>337</v>
       </c>
       <c r="AO26" t="s">
-        <v>1017</v>
+        <v>1062</v>
       </c>
       <c r="AP26" t="s">
-        <v>1018</v>
+        <v>337</v>
       </c>
       <c r="AQ26" t="s">
-        <v>1019</v>
+        <v>1063</v>
       </c>
       <c r="AR26" t="s">
-        <v>1020</v>
+        <v>1064</v>
       </c>
       <c r="AS26" t="s">
-        <v>1021</v>
+        <v>1065</v>
       </c>
       <c r="AT26" t="s">
-        <v>343</v>
+        <v>1066</v>
       </c>
       <c r="AU26" t="s">
-        <v>1022</v>
+        <v>1067</v>
       </c>
       <c r="AV26" t="s">
-        <v>1023</v>
+        <v>1068</v>
       </c>
       <c r="AW26" t="s">
-        <v>1024</v>
+        <v>1069</v>
       </c>
       <c r="AX26" t="s">
-        <v>1025</v>
+        <v>337</v>
       </c>
       <c r="AY26" t="s">
-        <v>1026</v>
+        <v>1070</v>
       </c>
       <c r="AZ26" t="s">
-        <v>1027</v>
+        <v>1071</v>
       </c>
       <c r="BA26" t="s">
-        <v>1028</v>
+        <v>1072</v>
       </c>
       <c r="BB26" t="s">
-        <v>1029</v>
+        <v>1073</v>
       </c>
       <c r="BC26" t="s">
-        <v>1030</v>
+        <v>1074</v>
       </c>
       <c r="BD26" t="s">
-        <v>1031</v>
+        <v>1075</v>
       </c>
       <c r="BE26" t="s">
-        <v>1032</v>
+        <v>1076</v>
       </c>
       <c r="BF26" t="s">
-        <v>1033</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1034</v>
+        <v>1078</v>
       </c>
       <c r="B27" t="s">
         <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>1035</v>
+        <v>1079</v>
       </c>
       <c r="E27" t="s">
-        <v>1036</v>
+        <v>1080</v>
       </c>
       <c r="F27" t="s">
         <v>333</v>
@@ -8580,171 +8748,171 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>1037</v>
+        <v>1081</v>
       </c>
       <c r="J27" t="s">
-        <v>1038</v>
+        <v>337</v>
       </c>
       <c r="K27" t="s">
-        <v>1039</v>
+        <v>1082</v>
       </c>
       <c r="L27" t="s">
-        <v>1040</v>
+        <v>1083</v>
       </c>
       <c r="M27" t="s">
-        <v>1041</v>
+        <v>1084</v>
       </c>
       <c r="N27" t="s">
-        <v>1042</v>
+        <v>1085</v>
       </c>
       <c r="O27" t="s">
-        <v>1043</v>
+        <v>1086</v>
       </c>
       <c r="P27" t="s">
-        <v>1044</v>
+        <v>1087</v>
       </c>
       <c r="Q27" t="s">
-        <v>1045</v>
+        <v>1088</v>
       </c>
       <c r="R27" t="s">
-        <v>1046</v>
+        <v>1089</v>
       </c>
       <c r="S27" t="s">
-        <v>1047</v>
+        <v>1090</v>
       </c>
       <c r="T27" t="s">
-        <v>1048</v>
+        <v>1091</v>
       </c>
       <c r="U27" t="s">
-        <v>1049</v>
+        <v>1092</v>
       </c>
       <c r="V27" t="s">
-        <v>1050</v>
+        <v>1093</v>
       </c>
       <c r="W27" t="s">
-        <v>1051</v>
+        <v>1094</v>
       </c>
       <c r="X27" t="s">
-        <v>1052</v>
+        <v>1095</v>
       </c>
       <c r="Y27" t="s">
-        <v>1053</v>
+        <v>1096</v>
       </c>
       <c r="Z27" t="s">
-        <v>1054</v>
+        <v>1097</v>
       </c>
       <c r="AA27" t="s">
-        <v>1055</v>
+        <v>1098</v>
       </c>
       <c r="AB27" t="s">
-        <v>1056</v>
+        <v>1099</v>
       </c>
       <c r="AC27" t="s">
-        <v>343</v>
+        <v>1100</v>
       </c>
       <c r="AD27" t="s">
-        <v>1057</v>
+        <v>337</v>
       </c>
       <c r="AE27" t="s">
-        <v>1058</v>
+        <v>1101</v>
       </c>
       <c r="AF27" t="s">
-        <v>1059</v>
+        <v>1102</v>
       </c>
       <c r="AG27" t="s">
-        <v>1060</v>
+        <v>1103</v>
       </c>
       <c r="AH27" t="s">
-        <v>1061</v>
+        <v>1104</v>
       </c>
       <c r="AI27" t="s">
-        <v>343</v>
+        <v>1105</v>
       </c>
       <c r="AJ27" t="s">
-        <v>1062</v>
+        <v>1106</v>
       </c>
       <c r="AK27" t="s">
-        <v>1063</v>
+        <v>1107</v>
       </c>
       <c r="AL27" t="s">
-        <v>343</v>
+        <v>1108</v>
       </c>
       <c r="AM27" t="s">
-        <v>1064</v>
+        <v>1109</v>
       </c>
       <c r="AN27" t="s">
-        <v>1065</v>
+        <v>1110</v>
       </c>
       <c r="AO27" t="s">
-        <v>1066</v>
+        <v>1111</v>
       </c>
       <c r="AP27" t="s">
-        <v>1067</v>
+        <v>337</v>
       </c>
       <c r="AQ27" t="s">
-        <v>1068</v>
+        <v>1112</v>
       </c>
       <c r="AR27" t="s">
-        <v>1069</v>
+        <v>1113</v>
       </c>
       <c r="AS27" t="s">
-        <v>1070</v>
+        <v>1114</v>
       </c>
       <c r="AT27" t="s">
-        <v>1071</v>
+        <v>1115</v>
       </c>
       <c r="AU27" t="s">
-        <v>1072</v>
+        <v>1116</v>
       </c>
       <c r="AV27" t="s">
-        <v>1073</v>
+        <v>1117</v>
       </c>
       <c r="AW27" t="s">
-        <v>1074</v>
+        <v>1118</v>
       </c>
       <c r="AX27" t="s">
-        <v>1075</v>
+        <v>1119</v>
       </c>
       <c r="AY27" t="s">
-        <v>1076</v>
+        <v>1120</v>
       </c>
       <c r="AZ27" t="s">
-        <v>1077</v>
+        <v>1121</v>
       </c>
       <c r="BA27" t="s">
-        <v>1078</v>
+        <v>1122</v>
       </c>
       <c r="BB27" t="s">
-        <v>1079</v>
+        <v>1123</v>
       </c>
       <c r="BC27" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BD27" t="s">
-        <v>1080</v>
+        <v>1124</v>
       </c>
       <c r="BE27" t="s">
-        <v>1081</v>
+        <v>1125</v>
       </c>
       <c r="BF27" t="s">
-        <v>1082</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1083</v>
+        <v>1127</v>
       </c>
       <c r="B28" t="s">
         <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>1084</v>
+        <v>1128</v>
       </c>
       <c r="E28" t="s">
-        <v>1085</v>
+        <v>1129</v>
       </c>
       <c r="F28" t="s">
         <v>333</v>
@@ -8754,171 +8922,171 @@
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>1086</v>
+        <v>1130</v>
       </c>
       <c r="J28" t="s">
-        <v>1087</v>
+        <v>1131</v>
       </c>
       <c r="K28" t="s">
-        <v>343</v>
+        <v>1132</v>
       </c>
       <c r="L28" t="s">
-        <v>1088</v>
+        <v>1133</v>
       </c>
       <c r="M28" t="s">
-        <v>1089</v>
+        <v>1134</v>
       </c>
       <c r="N28" t="s">
-        <v>1090</v>
+        <v>1135</v>
       </c>
       <c r="O28" t="s">
-        <v>343</v>
+        <v>1136</v>
       </c>
       <c r="P28" t="s">
-        <v>1091</v>
+        <v>1137</v>
       </c>
       <c r="Q28" t="s">
-        <v>1092</v>
+        <v>1138</v>
       </c>
       <c r="R28" t="s">
-        <v>343</v>
+        <v>1139</v>
       </c>
       <c r="S28" t="s">
-        <v>1093</v>
+        <v>1140</v>
       </c>
       <c r="T28" t="s">
-        <v>1094</v>
+        <v>1141</v>
       </c>
       <c r="U28" t="s">
-        <v>1095</v>
+        <v>1142</v>
       </c>
       <c r="V28" t="s">
-        <v>1096</v>
+        <v>1143</v>
       </c>
       <c r="W28" t="s">
-        <v>1097</v>
+        <v>1144</v>
       </c>
       <c r="X28" t="s">
-        <v>1098</v>
+        <v>1145</v>
       </c>
       <c r="Y28" t="s">
-        <v>1099</v>
+        <v>1146</v>
       </c>
       <c r="Z28" t="s">
-        <v>1100</v>
+        <v>1147</v>
       </c>
       <c r="AA28" t="s">
-        <v>1101</v>
+        <v>1148</v>
       </c>
       <c r="AB28" t="s">
-        <v>1102</v>
+        <v>1149</v>
       </c>
       <c r="AC28" t="s">
-        <v>1103</v>
+        <v>1150</v>
       </c>
       <c r="AD28" t="s">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="AE28" t="s">
-        <v>1105</v>
+        <v>1152</v>
       </c>
       <c r="AF28" t="s">
-        <v>1106</v>
+        <v>1153</v>
       </c>
       <c r="AG28" t="s">
-        <v>1107</v>
+        <v>1154</v>
       </c>
       <c r="AH28" t="s">
-        <v>1108</v>
+        <v>1155</v>
       </c>
       <c r="AI28" t="s">
-        <v>1109</v>
+        <v>1156</v>
       </c>
       <c r="AJ28" t="s">
-        <v>1110</v>
+        <v>1157</v>
       </c>
       <c r="AK28" t="s">
-        <v>1111</v>
+        <v>1158</v>
       </c>
       <c r="AL28" t="s">
-        <v>343</v>
+        <v>1159</v>
       </c>
       <c r="AM28" t="s">
-        <v>1112</v>
+        <v>1160</v>
       </c>
       <c r="AN28" t="s">
-        <v>1113</v>
+        <v>1161</v>
       </c>
       <c r="AO28" t="s">
-        <v>1114</v>
+        <v>1162</v>
       </c>
       <c r="AP28" t="s">
-        <v>1115</v>
+        <v>1163</v>
       </c>
       <c r="AQ28" t="s">
-        <v>1116</v>
+        <v>337</v>
       </c>
       <c r="AR28" t="s">
-        <v>1117</v>
+        <v>1164</v>
       </c>
       <c r="AS28" t="s">
-        <v>1118</v>
+        <v>1165</v>
       </c>
       <c r="AT28" t="s">
-        <v>1119</v>
+        <v>1166</v>
       </c>
       <c r="AU28" t="s">
-        <v>1120</v>
+        <v>1167</v>
       </c>
       <c r="AV28" t="s">
-        <v>1121</v>
+        <v>1168</v>
       </c>
       <c r="AW28" t="s">
-        <v>1122</v>
+        <v>1169</v>
       </c>
       <c r="AX28" t="s">
-        <v>1123</v>
+        <v>1170</v>
       </c>
       <c r="AY28" t="s">
-        <v>1124</v>
+        <v>1171</v>
       </c>
       <c r="AZ28" t="s">
-        <v>1125</v>
+        <v>1172</v>
       </c>
       <c r="BA28" t="s">
-        <v>1126</v>
+        <v>1173</v>
       </c>
       <c r="BB28" t="s">
-        <v>1127</v>
+        <v>1174</v>
       </c>
       <c r="BC28" t="s">
-        <v>1128</v>
+        <v>1175</v>
       </c>
       <c r="BD28" t="s">
-        <v>1129</v>
+        <v>1176</v>
       </c>
       <c r="BE28" t="s">
-        <v>1130</v>
+        <v>1177</v>
       </c>
       <c r="BF28" t="s">
-        <v>1131</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1132</v>
+        <v>1179</v>
       </c>
       <c r="B29" t="s">
         <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>1133</v>
+        <v>1180</v>
       </c>
       <c r="E29" t="s">
-        <v>1134</v>
+        <v>1181</v>
       </c>
       <c r="F29" t="s">
         <v>333</v>
@@ -8928,171 +9096,171 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>1135</v>
+        <v>1182</v>
       </c>
       <c r="J29" t="s">
-        <v>343</v>
+        <v>1183</v>
       </c>
       <c r="K29" t="s">
-        <v>1136</v>
+        <v>1184</v>
       </c>
       <c r="L29" t="s">
-        <v>1137</v>
+        <v>1185</v>
       </c>
       <c r="M29" t="s">
-        <v>343</v>
+        <v>1186</v>
       </c>
       <c r="N29" t="s">
-        <v>343</v>
+        <v>1187</v>
       </c>
       <c r="O29" t="s">
-        <v>1138</v>
+        <v>1188</v>
       </c>
       <c r="P29" t="s">
-        <v>1139</v>
+        <v>1189</v>
       </c>
       <c r="Q29" t="s">
-        <v>1140</v>
+        <v>1190</v>
       </c>
       <c r="R29" t="s">
-        <v>1141</v>
+        <v>1191</v>
       </c>
       <c r="S29" t="s">
-        <v>1142</v>
+        <v>1192</v>
       </c>
       <c r="T29" t="s">
-        <v>1143</v>
+        <v>1193</v>
       </c>
       <c r="U29" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="V29" t="s">
-        <v>1144</v>
+        <v>1194</v>
       </c>
       <c r="W29" t="s">
-        <v>1145</v>
+        <v>1195</v>
       </c>
       <c r="X29" t="s">
-        <v>1146</v>
+        <v>1196</v>
       </c>
       <c r="Y29" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Z29" t="s">
-        <v>1147</v>
+        <v>1197</v>
       </c>
       <c r="AA29" t="s">
-        <v>1148</v>
+        <v>1198</v>
       </c>
       <c r="AB29" t="s">
-        <v>1149</v>
+        <v>1199</v>
       </c>
       <c r="AC29" t="s">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="AD29" t="s">
-        <v>1151</v>
+        <v>1201</v>
       </c>
       <c r="AE29" t="s">
-        <v>1152</v>
+        <v>1202</v>
       </c>
       <c r="AF29" t="s">
-        <v>1153</v>
+        <v>1203</v>
       </c>
       <c r="AG29" t="s">
-        <v>1154</v>
+        <v>1204</v>
       </c>
       <c r="AH29" t="s">
-        <v>1155</v>
+        <v>1205</v>
       </c>
       <c r="AI29" t="s">
-        <v>1156</v>
+        <v>1206</v>
       </c>
       <c r="AJ29" t="s">
-        <v>1157</v>
+        <v>1207</v>
       </c>
       <c r="AK29" t="s">
-        <v>1158</v>
+        <v>1208</v>
       </c>
       <c r="AL29" t="s">
-        <v>1159</v>
+        <v>337</v>
       </c>
       <c r="AM29" t="s">
-        <v>1160</v>
+        <v>1209</v>
       </c>
       <c r="AN29" t="s">
-        <v>1161</v>
+        <v>1210</v>
       </c>
       <c r="AO29" t="s">
-        <v>1162</v>
+        <v>1211</v>
       </c>
       <c r="AP29" t="s">
-        <v>1163</v>
+        <v>1212</v>
       </c>
       <c r="AQ29" t="s">
-        <v>1164</v>
+        <v>1213</v>
       </c>
       <c r="AR29" t="s">
-        <v>1165</v>
+        <v>1214</v>
       </c>
       <c r="AS29" t="s">
-        <v>343</v>
+        <v>1215</v>
       </c>
       <c r="AT29" t="s">
-        <v>1166</v>
+        <v>1216</v>
       </c>
       <c r="AU29" t="s">
-        <v>343</v>
+        <v>1217</v>
       </c>
       <c r="AV29" t="s">
-        <v>1167</v>
+        <v>1218</v>
       </c>
       <c r="AW29" t="s">
-        <v>343</v>
+        <v>1219</v>
       </c>
       <c r="AX29" t="s">
-        <v>1168</v>
+        <v>1220</v>
       </c>
       <c r="AY29" t="s">
-        <v>1169</v>
+        <v>1221</v>
       </c>
       <c r="AZ29" t="s">
-        <v>343</v>
+        <v>1222</v>
       </c>
       <c r="BA29" t="s">
-        <v>343</v>
+        <v>1223</v>
       </c>
       <c r="BB29" t="s">
-        <v>1170</v>
+        <v>1224</v>
       </c>
       <c r="BC29" t="s">
-        <v>1171</v>
+        <v>1225</v>
       </c>
       <c r="BD29" t="s">
-        <v>1172</v>
+        <v>337</v>
       </c>
       <c r="BE29" t="s">
-        <v>1173</v>
+        <v>1226</v>
       </c>
       <c r="BF29" t="s">
-        <v>1174</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1175</v>
+        <v>1228</v>
       </c>
       <c r="B30" t="s">
         <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>1176</v>
+        <v>1229</v>
       </c>
       <c r="E30" t="s">
-        <v>1177</v>
+        <v>1230</v>
       </c>
       <c r="F30" t="s">
         <v>333</v>
@@ -9102,171 +9270,171 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>1178</v>
+        <v>1231</v>
       </c>
       <c r="J30" t="s">
-        <v>1179</v>
+        <v>1232</v>
       </c>
       <c r="K30" t="s">
-        <v>1180</v>
+        <v>1233</v>
       </c>
       <c r="L30" t="s">
-        <v>1181</v>
+        <v>1234</v>
       </c>
       <c r="M30" t="s">
-        <v>1182</v>
+        <v>1235</v>
       </c>
       <c r="N30" t="s">
-        <v>1183</v>
+        <v>1236</v>
       </c>
       <c r="O30" t="s">
-        <v>1184</v>
+        <v>1237</v>
       </c>
       <c r="P30" t="s">
-        <v>1185</v>
+        <v>1238</v>
       </c>
       <c r="Q30" t="s">
-        <v>1186</v>
+        <v>1239</v>
       </c>
       <c r="R30" t="s">
-        <v>1187</v>
+        <v>1240</v>
       </c>
       <c r="S30" t="s">
-        <v>343</v>
+        <v>1241</v>
       </c>
       <c r="T30" t="s">
-        <v>1188</v>
+        <v>1242</v>
       </c>
       <c r="U30" t="s">
-        <v>1189</v>
+        <v>1243</v>
       </c>
       <c r="V30" t="s">
-        <v>343</v>
+        <v>1244</v>
       </c>
       <c r="W30" t="s">
-        <v>343</v>
+        <v>1245</v>
       </c>
       <c r="X30" t="s">
-        <v>1190</v>
+        <v>1246</v>
       </c>
       <c r="Y30" t="s">
-        <v>1191</v>
+        <v>1247</v>
       </c>
       <c r="Z30" t="s">
-        <v>1192</v>
+        <v>1248</v>
       </c>
       <c r="AA30" t="s">
-        <v>1193</v>
+        <v>1249</v>
       </c>
       <c r="AB30" t="s">
-        <v>343</v>
+        <v>1250</v>
       </c>
       <c r="AC30" t="s">
-        <v>1194</v>
+        <v>1251</v>
       </c>
       <c r="AD30" t="s">
-        <v>1195</v>
+        <v>1252</v>
       </c>
       <c r="AE30" t="s">
-        <v>343</v>
+        <v>1253</v>
       </c>
       <c r="AF30" t="s">
-        <v>1196</v>
+        <v>1254</v>
       </c>
       <c r="AG30" t="s">
-        <v>1197</v>
+        <v>1255</v>
       </c>
       <c r="AH30" t="s">
-        <v>1198</v>
+        <v>1256</v>
       </c>
       <c r="AI30" t="s">
-        <v>1199</v>
+        <v>1257</v>
       </c>
       <c r="AJ30" t="s">
-        <v>1200</v>
+        <v>1258</v>
       </c>
       <c r="AK30" t="s">
-        <v>1201</v>
+        <v>1259</v>
       </c>
       <c r="AL30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AM30" t="s">
-        <v>1202</v>
+        <v>1260</v>
       </c>
       <c r="AN30" t="s">
-        <v>1203</v>
+        <v>337</v>
       </c>
       <c r="AO30" t="s">
-        <v>1204</v>
+        <v>337</v>
       </c>
       <c r="AP30" t="s">
-        <v>1205</v>
+        <v>1261</v>
       </c>
       <c r="AQ30" t="s">
-        <v>1206</v>
+        <v>1262</v>
       </c>
       <c r="AR30" t="s">
-        <v>1207</v>
+        <v>1263</v>
       </c>
       <c r="AS30" t="s">
-        <v>1208</v>
+        <v>1264</v>
       </c>
       <c r="AT30" t="s">
-        <v>1209</v>
+        <v>1265</v>
       </c>
       <c r="AU30" t="s">
-        <v>1210</v>
+        <v>1266</v>
       </c>
       <c r="AV30" t="s">
-        <v>1211</v>
+        <v>1267</v>
       </c>
       <c r="AW30" t="s">
-        <v>1212</v>
+        <v>1268</v>
       </c>
       <c r="AX30" t="s">
-        <v>343</v>
+        <v>1269</v>
       </c>
       <c r="AY30" t="s">
-        <v>1213</v>
+        <v>1270</v>
       </c>
       <c r="AZ30" t="s">
-        <v>1214</v>
+        <v>337</v>
       </c>
       <c r="BA30" t="s">
-        <v>1215</v>
+        <v>1271</v>
       </c>
       <c r="BB30" t="s">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="BC30" t="s">
-        <v>1217</v>
+        <v>1273</v>
       </c>
       <c r="BD30" t="s">
-        <v>343</v>
+        <v>1274</v>
       </c>
       <c r="BE30" t="s">
-        <v>1218</v>
+        <v>337</v>
       </c>
       <c r="BF30" t="s">
-        <v>343</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1219</v>
+        <v>1276</v>
       </c>
       <c r="B31" t="s">
         <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>1220</v>
+        <v>1277</v>
       </c>
       <c r="E31" t="s">
-        <v>1221</v>
+        <v>1278</v>
       </c>
       <c r="F31" t="s">
         <v>333</v>
@@ -9276,154 +9444,154 @@
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>1222</v>
+        <v>1279</v>
       </c>
       <c r="J31" t="s">
-        <v>1223</v>
+        <v>1280</v>
       </c>
       <c r="K31" t="s">
-        <v>1224</v>
+        <v>337</v>
       </c>
       <c r="L31" t="s">
-        <v>1225</v>
+        <v>337</v>
       </c>
       <c r="M31" t="s">
-        <v>1226</v>
+        <v>1281</v>
       </c>
       <c r="N31" t="s">
-        <v>1227</v>
+        <v>1282</v>
       </c>
       <c r="O31" t="s">
-        <v>1228</v>
+        <v>1283</v>
       </c>
       <c r="P31" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q31" t="s">
-        <v>1229</v>
+        <v>1284</v>
       </c>
       <c r="R31" t="s">
-        <v>1230</v>
+        <v>1285</v>
       </c>
       <c r="S31" t="s">
-        <v>1231</v>
+        <v>1286</v>
       </c>
       <c r="T31" t="s">
-        <v>1232</v>
+        <v>1287</v>
       </c>
       <c r="U31" t="s">
-        <v>1233</v>
+        <v>1288</v>
       </c>
       <c r="V31" t="s">
-        <v>1234</v>
+        <v>1289</v>
       </c>
       <c r="W31" t="s">
-        <v>1235</v>
+        <v>1290</v>
       </c>
       <c r="X31" t="s">
-        <v>343</v>
+        <v>1291</v>
       </c>
       <c r="Y31" t="s">
-        <v>1236</v>
+        <v>1292</v>
       </c>
       <c r="Z31" t="s">
-        <v>1237</v>
+        <v>1293</v>
       </c>
       <c r="AA31" t="s">
-        <v>1238</v>
+        <v>1294</v>
       </c>
       <c r="AB31" t="s">
-        <v>1239</v>
+        <v>1295</v>
       </c>
       <c r="AC31" t="s">
-        <v>1240</v>
+        <v>1296</v>
       </c>
       <c r="AD31" t="s">
-        <v>1241</v>
+        <v>1297</v>
       </c>
       <c r="AE31" t="s">
-        <v>1242</v>
+        <v>1298</v>
       </c>
       <c r="AF31" t="s">
-        <v>1243</v>
+        <v>1299</v>
       </c>
       <c r="AG31" t="s">
-        <v>1244</v>
+        <v>1300</v>
       </c>
       <c r="AH31" t="s">
-        <v>1245</v>
+        <v>1301</v>
       </c>
       <c r="AI31" t="s">
-        <v>1246</v>
+        <v>1302</v>
       </c>
       <c r="AJ31" t="s">
-        <v>1247</v>
+        <v>1303</v>
       </c>
       <c r="AK31" t="s">
-        <v>343</v>
+        <v>1304</v>
       </c>
       <c r="AL31" t="s">
-        <v>1248</v>
+        <v>1305</v>
       </c>
       <c r="AM31" t="s">
-        <v>1249</v>
+        <v>1306</v>
       </c>
       <c r="AN31" t="s">
-        <v>1250</v>
+        <v>1307</v>
       </c>
       <c r="AO31" t="s">
-        <v>1251</v>
+        <v>1308</v>
       </c>
       <c r="AP31" t="s">
-        <v>1252</v>
+        <v>1309</v>
       </c>
       <c r="AQ31" t="s">
-        <v>1253</v>
+        <v>1310</v>
       </c>
       <c r="AR31" t="s">
-        <v>1254</v>
+        <v>1311</v>
       </c>
       <c r="AS31" t="s">
-        <v>1255</v>
+        <v>1312</v>
       </c>
       <c r="AT31" t="s">
-        <v>1256</v>
+        <v>1313</v>
       </c>
       <c r="AU31" t="s">
-        <v>1257</v>
+        <v>1314</v>
       </c>
       <c r="AV31" t="s">
-        <v>1258</v>
+        <v>1315</v>
       </c>
       <c r="AW31" t="s">
-        <v>1259</v>
+        <v>1316</v>
       </c>
       <c r="AX31" t="s">
-        <v>1260</v>
+        <v>1317</v>
       </c>
       <c r="AY31" t="s">
-        <v>1261</v>
+        <v>337</v>
       </c>
       <c r="AZ31" t="s">
-        <v>1262</v>
+        <v>1318</v>
       </c>
       <c r="BA31" t="s">
-        <v>1263</v>
+        <v>1319</v>
       </c>
       <c r="BB31" t="s">
-        <v>1264</v>
+        <v>1320</v>
       </c>
       <c r="BC31" t="s">
-        <v>1265</v>
+        <v>1321</v>
       </c>
       <c r="BD31" t="s">
-        <v>1266</v>
+        <v>1322</v>
       </c>
       <c r="BE31" t="s">
-        <v>1267</v>
+        <v>1323</v>
       </c>
       <c r="BF31" t="s">
-        <v>1268</v>
+        <v>1324</v>
       </c>
     </row>
   </sheetData>
